--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -400,6 +400,9 @@
       <c r="C4" t="str">
         <v xml:space="preserve">Done [yes or no] </v>
       </c>
+      <c r="E4" t="str">
+        <v>code</v>
+      </c>
     </row>
     <row r="5">
       <c r="C5" t="str">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -375,1161 +375,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E481"/>
+  <dimension ref="A1:F481"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="B1" t="str">
+      <c r="C1" t="str">
         <v>Questions by Love Babbar:</v>
       </c>
     </row>
     <row r="2">
-      <c r="B2" t="str">
+      <c r="C2" t="str">
         <v xml:space="preserve">Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw </v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
+        <v>S. no</v>
+      </c>
+      <c r="B4" t="str">
         <v>Topic:</v>
       </c>
-      <c r="B4" t="str">
+      <c r="C4" t="str">
         <v xml:space="preserve">Problem: </v>
       </c>
-      <c r="C4" t="str">
+      <c r="D4" t="str">
         <v xml:space="preserve">Done [yes or no] </v>
       </c>
-      <c r="E4" t="str">
+      <c r="F4" t="str">
         <v>code</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" t="str">
-        <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
+        <v>1</v>
+      </c>
+      <c r="B6" t="str">
         <v>Array</v>
       </c>
-      <c r="B6" t="str">
+      <c r="C6" t="str">
         <v>Reverse the array</v>
       </c>
-      <c r="C6" t="str">
-        <v>&lt;-&gt;</v>
+      <c r="D6" t="str">
+        <v>yes</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
+        <v>2</v>
+      </c>
+      <c r="B7" t="str">
         <v>Array</v>
       </c>
-      <c r="B7" t="str">
+      <c r="C7" t="str">
         <v>Find the maximum and minimum element in an array</v>
       </c>
-      <c r="C7" t="str">
-        <v>&lt;-&gt;</v>
+      <c r="D7" t="str">
+        <v>yes</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
+        <v>3</v>
+      </c>
+      <c r="B8" t="str">
         <v>Array</v>
       </c>
-      <c r="B8" t="str">
+      <c r="C8" t="str">
         <v xml:space="preserve">Find the "Kth" max and min element of an array </v>
       </c>
-      <c r="C8" t="str">
-        <v>&lt;-&gt;</v>
+      <c r="D8" t="str">
+        <v>yes</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
+        <v>4</v>
+      </c>
+      <c r="B9" t="str">
         <v>Array</v>
       </c>
-      <c r="B9" t="str">
+      <c r="C9" t="str">
         <v>Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo</v>
       </c>
-      <c r="C9" t="str">
-        <v>&lt;-&gt;</v>
+      <c r="D9" t="str">
+        <v>yes</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
+        <v>5</v>
+      </c>
+      <c r="B10" t="str">
         <v>Array</v>
       </c>
-      <c r="B10" t="str">
+      <c r="C10" t="str">
         <v xml:space="preserve">Move all the negative elements to one side of the array </v>
       </c>
-      <c r="C10" t="str">
-        <v>&lt;-&gt;</v>
+      <c r="D10" t="str">
+        <v>yes</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
+        <v>6</v>
+      </c>
+      <c r="B11" t="str">
         <v>Array</v>
       </c>
-      <c r="B11" t="str">
+      <c r="C11" t="str">
         <v>Find the Union and Intersection of the two sorted arrays.</v>
       </c>
-      <c r="C11" t="str">
+      <c r="D11" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
+        <v>7</v>
+      </c>
+      <c r="B12" t="str">
         <v>Array</v>
       </c>
-      <c r="B12" t="str">
+      <c r="C12" t="str">
         <v>Write a program to cyclically rotate an array by one.</v>
       </c>
-      <c r="C12" t="str">
+      <c r="D12" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
+        <v>8</v>
+      </c>
+      <c r="B13" t="str">
         <v>Array</v>
       </c>
-      <c r="B13" t="str">
+      <c r="C13" t="str">
         <v>find Largest sum contiguous Subarray [V. IMP]</v>
       </c>
-      <c r="C13" t="str">
-        <v>&lt;-&gt;</v>
+      <c r="D13" t="str">
+        <v>yes</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
+        <v>9</v>
+      </c>
+      <c r="B14" t="str">
         <v>Array</v>
       </c>
-      <c r="B14" t="str">
+      <c r="C14" t="str">
         <v>Minimise the maximum difference between heights [V.IMP]</v>
       </c>
-      <c r="C14" t="str">
+      <c r="D14" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
+        <v>10</v>
+      </c>
+      <c r="B15" t="str">
         <v>Array</v>
       </c>
-      <c r="B15" t="str">
+      <c r="C15" t="str">
         <v>Minimum no. of Jumps to reach end of an array</v>
       </c>
-      <c r="C15" t="str">
+      <c r="D15" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
+        <v>11</v>
+      </c>
+      <c r="B16" t="str">
         <v>Array</v>
       </c>
-      <c r="B16" t="str">
+      <c r="C16" t="str">
         <v>find duplicate in an array of N+1 Integers</v>
       </c>
-      <c r="C16" t="str">
+      <c r="D16" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
+        <v>12</v>
+      </c>
+      <c r="B17" t="str">
         <v>Array</v>
       </c>
-      <c r="B17" t="str">
+      <c r="C17" t="str">
         <v>Merge 2 sorted arrays without using Extra space.</v>
       </c>
-      <c r="C17" t="str">
+      <c r="D17" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
+        <v>13</v>
+      </c>
+      <c r="B18" t="str">
         <v>Array</v>
       </c>
-      <c r="B18" t="str">
+      <c r="C18" t="str">
         <v>Kadane's Algo [V.V.V.V.V IMP]</v>
       </c>
-      <c r="C18" t="str">
+      <c r="D18" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
+        <v>14</v>
+      </c>
+      <c r="B19" t="str">
         <v>Array</v>
       </c>
-      <c r="B19" t="str">
+      <c r="C19" t="str">
         <v>Merge Intervals</v>
       </c>
-      <c r="C19" t="str">
+      <c r="D19" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
+        <v>15</v>
+      </c>
+      <c r="B20" t="str">
         <v>Array</v>
       </c>
-      <c r="B20" t="str">
+      <c r="C20" t="str">
         <v>Next Permutation</v>
       </c>
-      <c r="C20" t="str">
+      <c r="D20" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
+        <v>16</v>
+      </c>
+      <c r="B21" t="str">
         <v>Array</v>
       </c>
-      <c r="B21" t="str">
+      <c r="C21" t="str">
         <v>Count Inversion</v>
       </c>
-      <c r="C21" t="str">
+      <c r="D21" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
+        <v>17</v>
+      </c>
+      <c r="B22" t="str">
         <v>Array</v>
       </c>
-      <c r="B22" t="str">
+      <c r="C22" t="str">
         <v>Best time to buy and Sell stock</v>
       </c>
-      <c r="C22" t="str">
+      <c r="D22" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
+        <v>18</v>
+      </c>
+      <c r="B23" t="str">
         <v>Array</v>
       </c>
-      <c r="B23" t="str">
+      <c r="C23" t="str">
         <v>find all pairs on integer array whose sum is equal to given number</v>
       </c>
-      <c r="C23" t="str">
+      <c r="D23" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
+        <v>19</v>
+      </c>
+      <c r="B24" t="str">
         <v>Array</v>
       </c>
-      <c r="B24" t="str">
+      <c r="C24" t="str">
         <v>find common elements In 3 sorted arrays</v>
       </c>
-      <c r="C24" t="str">
+      <c r="D24" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
+        <v>20</v>
+      </c>
+      <c r="B25" t="str">
         <v>Array</v>
       </c>
-      <c r="B25" t="str">
+      <c r="C25" t="str">
         <v>Rearrange the array in alternating positive and negative items with O(1) extra space</v>
       </c>
-      <c r="C25" t="str">
+      <c r="D25" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
+        <v>21</v>
+      </c>
+      <c r="B26" t="str">
         <v>Array</v>
       </c>
-      <c r="B26" t="str">
+      <c r="C26" t="str">
         <v>Find if there is any subarray with sum equal to 0</v>
       </c>
-      <c r="C26" t="str">
+      <c r="D26" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
+        <v>22</v>
+      </c>
+      <c r="B27" t="str">
         <v>Array</v>
       </c>
-      <c r="B27" t="str">
+      <c r="C27" t="str">
         <v>Find factorial of a large number</v>
       </c>
-      <c r="C27" t="str">
+      <c r="D27" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
+        <v>23</v>
+      </c>
+      <c r="B28" t="str">
         <v>Array</v>
       </c>
-      <c r="B28" t="str">
+      <c r="C28" t="str">
         <v xml:space="preserve">find maximum product subarray </v>
       </c>
-      <c r="C28" t="str">
+      <c r="D28" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
+        <v>24</v>
+      </c>
+      <c r="B29" t="str">
         <v>Array</v>
       </c>
-      <c r="B29" t="str">
+      <c r="C29" t="str">
         <v>Find longest coinsecutive subsequence</v>
       </c>
-      <c r="C29" t="str">
+      <c r="D29" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
+        <v>25</v>
+      </c>
+      <c r="B30" t="str">
         <v>Array</v>
       </c>
-      <c r="B30" t="str">
+      <c r="C30" t="str">
         <v>Given an array of size n and a number k, fin all elements that appear more than " n/k " times.</v>
       </c>
-      <c r="C30" t="str">
+      <c r="D30" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
+        <v>26</v>
+      </c>
+      <c r="B31" t="str">
         <v>Array</v>
       </c>
-      <c r="B31" t="str">
+      <c r="C31" t="str">
         <v>Maximum profit by buying and selling a share atmost twice</v>
       </c>
-      <c r="C31" t="str">
+      <c r="D31" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
+        <v>27</v>
+      </c>
+      <c r="B32" t="str">
         <v>Array</v>
       </c>
-      <c r="B32" t="str">
+      <c r="C32" t="str">
         <v>Find whether an array is a subset of another array</v>
       </c>
-      <c r="C32" t="str">
+      <c r="D32" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
+        <v>28</v>
+      </c>
+      <c r="B33" t="str">
         <v>Array</v>
       </c>
-      <c r="B33" t="str">
+      <c r="C33" t="str">
         <v>Find the triplet that sum to a given value</v>
       </c>
-      <c r="C33" t="str">
+      <c r="D33" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
+        <v>29</v>
+      </c>
+      <c r="B34" t="str">
         <v>Array</v>
       </c>
-      <c r="B34" t="str">
+      <c r="C34" t="str">
         <v>Trapping Rain water problem</v>
       </c>
-      <c r="C34" t="str">
+      <c r="D34" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
+        <v>30</v>
+      </c>
+      <c r="B35" t="str">
         <v>Array</v>
       </c>
-      <c r="B35" t="str">
+      <c r="C35" t="str">
         <v>Chocolate Distribution problem</v>
       </c>
-      <c r="C35" t="str">
+      <c r="D35" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
+        <v>31</v>
+      </c>
+      <c r="B36" t="str">
         <v>Array</v>
       </c>
-      <c r="B36" t="str">
+      <c r="C36" t="str">
         <v>Smallest Subarray with sum greater than a given value</v>
       </c>
-      <c r="C36" t="str">
+      <c r="D36" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
+        <v>32</v>
+      </c>
+      <c r="B37" t="str">
         <v>Array</v>
       </c>
-      <c r="B37" t="str">
+      <c r="C37" t="str">
         <v>Three way partitioning of an array around a given value</v>
       </c>
-      <c r="C37" t="str">
+      <c r="D37" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
+        <v>33</v>
+      </c>
+      <c r="B38" t="str">
         <v>Array</v>
       </c>
-      <c r="B38" t="str">
+      <c r="C38" t="str">
         <v>Minimum swaps required bring elements less equal K together</v>
       </c>
-      <c r="C38" t="str">
+      <c r="D38" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
+        <v>34</v>
+      </c>
+      <c r="B39" t="str">
         <v>Array</v>
       </c>
-      <c r="B39" t="str">
+      <c r="C39" t="str">
         <v>Minimum no. of operations required to make an array palindrome</v>
       </c>
-      <c r="C39" t="str">
+      <c r="D39" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
+        <v>35</v>
+      </c>
+      <c r="B40" t="str">
         <v>Array</v>
       </c>
-      <c r="B40" t="str">
+      <c r="C40" t="str">
         <v>Median of 2 sorted arrays of equal size</v>
       </c>
-      <c r="C40" t="str">
+      <c r="D40" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
+        <v>36</v>
+      </c>
+      <c r="B41" t="str">
         <v>Array</v>
       </c>
-      <c r="B41" t="str">
+      <c r="C41" t="str">
         <v>Median of 2 sorted arrays of different size</v>
       </c>
-      <c r="C41" t="str">
+      <c r="D41" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="42">
-      <c r="C42" t="str">
+      <c r="D42" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="43">
-      <c r="C43" t="str">
+      <c r="D43" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
+        <v>37</v>
+      </c>
+      <c r="B44" t="str">
         <v>Matrix</v>
       </c>
-      <c r="B44" t="str">
+      <c r="C44" t="str">
         <v>Spiral traversal on a Matrix</v>
       </c>
-      <c r="C44" t="str">
+      <c r="D44" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
+        <v>38</v>
+      </c>
+      <c r="B45" t="str">
         <v>Matrix</v>
       </c>
-      <c r="B45" t="str">
+      <c r="C45" t="str">
         <v>Search an element in a matriix</v>
       </c>
-      <c r="C45" t="str">
+      <c r="D45" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
+        <v>39</v>
+      </c>
+      <c r="B46" t="str">
         <v>Matrix</v>
       </c>
-      <c r="B46" t="str">
+      <c r="C46" t="str">
         <v>Find median in a row wise sorted matrix</v>
       </c>
-      <c r="C46" t="str">
+      <c r="D46" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
+        <v>40</v>
+      </c>
+      <c r="B47" t="str">
         <v>Matrix</v>
       </c>
-      <c r="B47" t="str">
+      <c r="C47" t="str">
         <v>Find row with maximum no. of 1's</v>
       </c>
-      <c r="C47" t="str">
+      <c r="D47" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
+        <v>41</v>
+      </c>
+      <c r="B48" t="str">
         <v>Matrix</v>
       </c>
-      <c r="B48" t="str">
+      <c r="C48" t="str">
         <v>Print elements in sorted order using row-column wise sorted matrix</v>
       </c>
-      <c r="C48" t="str">
+      <c r="D48" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
+        <v>42</v>
+      </c>
+      <c r="B49" t="str">
         <v>Matrix</v>
       </c>
-      <c r="B49" t="str">
+      <c r="C49" t="str">
         <v>Maximum size rectangle</v>
       </c>
-      <c r="C49" t="str">
+      <c r="D49" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
+        <v>43</v>
+      </c>
+      <c r="B50" t="str">
         <v>Matrix</v>
       </c>
-      <c r="B50" t="str">
+      <c r="C50" t="str">
         <v>Find a specific pair in matrix</v>
       </c>
-      <c r="C50" t="str">
+      <c r="D50" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
+        <v>44</v>
+      </c>
+      <c r="B51" t="str">
         <v>Matrix</v>
       </c>
-      <c r="B51" t="str">
+      <c r="C51" t="str">
         <v>Rotate matrix by 90 degrees</v>
       </c>
-      <c r="C51" t="str">
+      <c r="D51" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
+        <v>45</v>
+      </c>
+      <c r="B52" t="str">
         <v>Matrix</v>
       </c>
-      <c r="B52" t="str">
+      <c r="C52" t="str">
         <v>Kth smallest element in a row-cpumn wise sorted matrix</v>
       </c>
-      <c r="C52" t="str">
+      <c r="D52" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
+        <v>46</v>
+      </c>
+      <c r="B53" t="str">
         <v>Matrix</v>
       </c>
-      <c r="B53" t="str">
+      <c r="C53" t="str">
         <v>Common elements in all rows of a given matrix</v>
       </c>
-      <c r="C53" t="str">
+      <c r="D53" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
+        <v>47</v>
+      </c>
+      <c r="B56" t="str">
         <v>String</v>
       </c>
-      <c r="B56" t="str">
+      <c r="C56" t="str">
         <v>Reverse a String</v>
       </c>
-      <c r="C56" t="str">
+      <c r="D56" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
+        <v>48</v>
+      </c>
+      <c r="B57" t="str">
         <v>String</v>
       </c>
-      <c r="B57" t="str">
+      <c r="C57" t="str">
         <v>Check whether a String is Palindrome or not</v>
       </c>
-      <c r="C57" t="str">
+      <c r="D57" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
+        <v>49</v>
+      </c>
+      <c r="B58" t="str">
         <v>String</v>
       </c>
-      <c r="B58" t="str">
+      <c r="C58" t="str">
         <v>Find Duplicate characters in a string</v>
       </c>
-      <c r="C58" t="str">
+      <c r="D58" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
+        <v>50</v>
+      </c>
+      <c r="B59" t="str">
         <v>String</v>
       </c>
-      <c r="B59" t="str">
+      <c r="C59" t="str">
         <v>Why strings are immutable in Java?</v>
       </c>
-      <c r="C59" t="str">
+      <c r="D59" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
+        <v>51</v>
+      </c>
+      <c r="B60" t="str">
         <v>String</v>
       </c>
-      <c r="B60" t="str">
+      <c r="C60" t="str">
         <v>Write a Code to check whether one string is a rotation of another</v>
       </c>
-      <c r="C60" t="str">
+      <c r="D60" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
+        <v>52</v>
+      </c>
+      <c r="B61" t="str">
         <v>String</v>
       </c>
-      <c r="B61" t="str">
+      <c r="C61" t="str">
         <v>Write a Program to check whether a string is a valid shuffle of two strings or not</v>
       </c>
-      <c r="C61" t="str">
+      <c r="D61" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
+        <v>53</v>
+      </c>
+      <c r="B62" t="str">
         <v>String</v>
       </c>
-      <c r="B62" t="str">
+      <c r="C62" t="str">
         <v>Count and Say problem</v>
       </c>
-      <c r="C62" t="str">
+      <c r="D62" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
+        <v>54</v>
+      </c>
+      <c r="B63" t="str">
         <v>String</v>
       </c>
-      <c r="B63" t="str">
+      <c r="C63" t="str">
         <v>Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]</v>
       </c>
-      <c r="C63" t="str">
+      <c r="D63" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
+        <v>55</v>
+      </c>
+      <c r="B64" t="str">
         <v>String</v>
       </c>
-      <c r="B64" t="str">
+      <c r="C64" t="str">
         <v>Find Longest Recurring Subsequence in String</v>
       </c>
-      <c r="C64" t="str">
+      <c r="D64" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
+        <v>56</v>
+      </c>
+      <c r="B65" t="str">
         <v>String</v>
       </c>
-      <c r="B65" t="str">
+      <c r="C65" t="str">
         <v>Print all Subsequences of a string.</v>
       </c>
-      <c r="C65" t="str">
+      <c r="D65" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
+        <v>57</v>
+      </c>
+      <c r="B66" t="str">
         <v>String</v>
       </c>
-      <c r="B66" t="str">
+      <c r="C66" t="str">
         <v>Print all the permutations of the given string</v>
       </c>
-      <c r="C66" t="str">
+      <c r="D66" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
+        <v>58</v>
+      </c>
+      <c r="B67" t="str">
         <v>String</v>
       </c>
-      <c r="B67" t="str">
+      <c r="C67" t="str">
         <v>Split the Binary string into two substring with equal 0’s and 1’s</v>
       </c>
-      <c r="C67" t="str">
+      <c r="D67" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
+        <v>59</v>
+      </c>
+      <c r="B68" t="str">
         <v>String</v>
       </c>
-      <c r="B68" t="str">
+      <c r="C68" t="str">
         <v>Word Wrap Problem [VERY IMP].</v>
       </c>
-      <c r="C68" t="str">
+      <c r="D68" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
+        <v>60</v>
+      </c>
+      <c r="B69" t="str">
         <v>String</v>
       </c>
-      <c r="B69" t="str">
+      <c r="C69" t="str">
         <v>EDIT Distance [Very Imp]</v>
       </c>
-      <c r="C69" t="str">
+      <c r="D69" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
+        <v>61</v>
+      </c>
+      <c r="B70" t="str">
         <v>String</v>
       </c>
-      <c r="B70" t="str">
+      <c r="C70" t="str">
         <v>Find next greater number with same set of digits. [Very Very IMP]</v>
       </c>
-      <c r="C70" t="str">
+      <c r="D70" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
+        <v>62</v>
+      </c>
+      <c r="B71" t="str">
         <v>String</v>
       </c>
-      <c r="B71" t="str">
+      <c r="C71" t="str">
         <v>Balanced Parenthesis problem.[Imp]</v>
       </c>
-      <c r="C71" t="str">
+      <c r="D71" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
+        <v>63</v>
+      </c>
+      <c r="B72" t="str">
         <v>String</v>
       </c>
-      <c r="B72" t="str">
+      <c r="C72" t="str">
         <v>Word break Problem[ Very Imp]</v>
       </c>
-      <c r="C72" t="str">
+      <c r="D72" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
+        <v>64</v>
+      </c>
+      <c r="B73" t="str">
         <v>String</v>
       </c>
-      <c r="B73" t="str">
+      <c r="C73" t="str">
         <v>Rabin Karp Algo</v>
       </c>
-      <c r="C73" t="str">
+      <c r="D73" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
+        <v>65</v>
+      </c>
+      <c r="B74" t="str">
         <v>String</v>
       </c>
-      <c r="B74" t="str">
+      <c r="C74" t="str">
         <v>KMP Algo</v>
       </c>
-      <c r="C74" t="str">
+      <c r="D74" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
+        <v>66</v>
+      </c>
+      <c r="B75" t="str">
         <v>String</v>
       </c>
-      <c r="B75" t="str">
+      <c r="C75" t="str">
         <v>Convert a Sentence into its equivalent mobile numeric keypad sequence.</v>
       </c>
-      <c r="C75" t="str">
+      <c r="D75" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
+        <v>67</v>
+      </c>
+      <c r="B76" t="str">
         <v>String</v>
       </c>
-      <c r="B76" t="str">
+      <c r="C76" t="str">
         <v>Minimum number of bracket reversals needed to make an expression balanced.</v>
       </c>
-      <c r="C76" t="str">
+      <c r="D76" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
+        <v>68</v>
+      </c>
+      <c r="B77" t="str">
         <v>String</v>
       </c>
-      <c r="B77" t="str">
+      <c r="C77" t="str">
         <v>Count All Palindromic Subsequence in a given String.</v>
       </c>
-      <c r="C77" t="str">
+      <c r="D77" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
+        <v>69</v>
+      </c>
+      <c r="B78" t="str">
         <v>String</v>
       </c>
-      <c r="B78" t="str">
+      <c r="C78" t="str">
         <v>Count of number of given string in 2D character array</v>
       </c>
-      <c r="C78" t="str">
+      <c r="D78" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
+        <v>70</v>
+      </c>
+      <c r="B79" t="str">
         <v>String</v>
       </c>
-      <c r="B79" t="str">
+      <c r="C79" t="str">
         <v>Search a Word in a 2D Grid of characters.</v>
       </c>
-      <c r="C79" t="str">
+      <c r="D79" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
+        <v>71</v>
+      </c>
+      <c r="B80" t="str">
         <v>String</v>
       </c>
-      <c r="B80" t="str">
+      <c r="C80" t="str">
         <v>Boyer Moore Algorithm for Pattern Searching.</v>
       </c>
-      <c r="C80" t="str">
+      <c r="D80" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
+        <v>72</v>
+      </c>
+      <c r="B81" t="str">
         <v>String</v>
       </c>
-      <c r="B81" t="str">
+      <c r="C81" t="str">
         <v>Converting Roman Numerals to Decimal</v>
       </c>
-      <c r="C81" t="str">
+      <c r="D81" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
+        <v>73</v>
+      </c>
+      <c r="B82" t="str">
         <v>String</v>
       </c>
-      <c r="B82" t="str">
+      <c r="C82" t="str">
         <v>Longest Common Prefix</v>
       </c>
-      <c r="C82" t="str">
+      <c r="D82" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
+        <v>74</v>
+      </c>
+      <c r="B83" t="str">
         <v>String</v>
       </c>
-      <c r="B83" t="str">
+      <c r="C83" t="str">
         <v>Number of flips to make binary string alternate</v>
       </c>
-      <c r="C83" t="str">
+      <c r="D83" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
+        <v>75</v>
+      </c>
+      <c r="B84" t="str">
         <v>String</v>
       </c>
-      <c r="B84" t="str">
+      <c r="C84" t="str">
         <v>Find the first repeated word in string.</v>
       </c>
-      <c r="C84" t="str">
+      <c r="D84" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
+        <v>76</v>
+      </c>
+      <c r="B85" t="str">
         <v>String</v>
       </c>
-      <c r="B85" t="str">
+      <c r="C85" t="str">
         <v>Minimum number of swaps for bracket balancing.</v>
       </c>
-      <c r="C85" t="str">
+      <c r="D85" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
+        <v>77</v>
+      </c>
+      <c r="B86" t="str">
         <v>String</v>
       </c>
-      <c r="B86" t="str">
+      <c r="C86" t="str">
         <v>Find the longest common subsequence between two strings.</v>
       </c>
-      <c r="C86" t="str">
+      <c r="D86" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
+        <v>78</v>
+      </c>
+      <c r="B87" t="str">
         <v>String</v>
       </c>
-      <c r="B87" t="str">
+      <c r="C87" t="str">
         <v>Program to generate all possible valid IP addresses from given  string.</v>
       </c>
-      <c r="C87" t="str">
+      <c r="D87" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
+        <v>79</v>
+      </c>
+      <c r="B88" t="str">
         <v>String</v>
       </c>
-      <c r="B88" t="str">
+      <c r="C88" t="str">
         <v>Write a program tofind the smallest window that contains all characters of string itself.</v>
       </c>
-      <c r="C88" t="str">
+      <c r="D88" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
+        <v>80</v>
+      </c>
+      <c r="B89" t="str">
         <v>String</v>
       </c>
-      <c r="B89" t="str">
+      <c r="C89" t="str">
         <v>Rearrange characters in a string such that no two adjacent are same</v>
       </c>
-      <c r="C89" t="str">
+      <c r="D89" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
+        <v>81</v>
+      </c>
+      <c r="B90" t="str">
         <v>String</v>
       </c>
-      <c r="B90" t="str">
+      <c r="C90" t="str">
         <v>Minimum characters to be added at front to make string palindrome</v>
       </c>
-      <c r="C90" t="str">
+      <c r="D90" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
+        <v>82</v>
+      </c>
+      <c r="B91" t="str">
         <v>String</v>
       </c>
-      <c r="B91" t="str">
+      <c r="C91" t="str">
         <v>Given a sequence of words, print all anagrams together</v>
       </c>
-      <c r="C91" t="str">
+      <c r="D91" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
+        <v>83</v>
+      </c>
+      <c r="B92" t="str">
         <v>String</v>
       </c>
-      <c r="B92" t="str">
+      <c r="C92" t="str">
         <v>Find the smallest window in a string containing all characters of another string</v>
       </c>
-      <c r="C92" t="str">
+      <c r="D92" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
+        <v>84</v>
+      </c>
+      <c r="B93" t="str">
         <v>String</v>
       </c>
-      <c r="B93" t="str">
+      <c r="C93" t="str">
         <v>Recursively remove all adjacent duplicates</v>
       </c>
-      <c r="C93" t="str">
+      <c r="D93" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
+        <v>85</v>
+      </c>
+      <c r="B94" t="str">
         <v>String</v>
       </c>
-      <c r="B94" t="str">
+      <c r="C94" t="str">
         <v>String matching where one string contains wildcard characters</v>
       </c>
-      <c r="C94" t="str">
+      <c r="D94" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
+        <v>86</v>
+      </c>
+      <c r="B95" t="str">
         <v>String</v>
       </c>
-      <c r="B95" t="str">
+      <c r="C95" t="str">
         <v>Function to find Number of customers who could not get a computer</v>
       </c>
-      <c r="C95" t="str">
+      <c r="D95" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
+        <v>87</v>
+      </c>
+      <c r="B96" t="str">
         <v>String</v>
       </c>
-      <c r="B96" t="str">
+      <c r="C96" t="str">
         <v>Transform One String to Another using Minimum Number of Given Operation</v>
       </c>
-      <c r="C96" t="str">
+      <c r="D96" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
+        <v>88</v>
+      </c>
+      <c r="B97" t="str">
         <v>String</v>
       </c>
-      <c r="B97" t="str">
+      <c r="C97" t="str">
         <v>Check if two given strings are isomorphic to each other</v>
       </c>
-      <c r="C97" t="str">
+      <c r="D97" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
+        <v>89</v>
+      </c>
+      <c r="B98" t="str">
         <v>String</v>
       </c>
-      <c r="B98" t="str">
+      <c r="C98" t="str">
         <v>Recursively print all sentences that can be formed from list of word lists</v>
       </c>
-      <c r="C98" t="str">
+      <c r="D98" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
+        <v>90</v>
+      </c>
+      <c r="B101" t="str">
         <v>Searching &amp; Sorting</v>
       </c>
-      <c r="B101" t="str">
+      <c r="C101" t="str">
         <v>Find first and last positions of an element in a sorted array</v>
       </c>
-      <c r="C101" t="str">
+      <c r="D101" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
+        <v>91</v>
+      </c>
+      <c r="B102" t="str">
         <v>Searching &amp; Sorting</v>
       </c>
-      <c r="B102" t="str">
+      <c r="C102" t="str">
         <v>Find a Fixed Point (Value equal to index) in a given array</v>
       </c>
-      <c r="C102" t="str">
+      <c r="D102" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
+        <v>92</v>
+      </c>
+      <c r="B103" t="str">
         <v>Searching &amp; Sorting</v>
       </c>
-      <c r="B103" t="str">
+      <c r="C103" t="str">
         <v>Search in a rotated sorted array</v>
       </c>
-      <c r="C103" t="str">
+      <c r="D103" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
+        <v>93</v>
+      </c>
+      <c r="B104" t="str">
         <v>Searching &amp; Sorting</v>
       </c>
-      <c r="B104" t="str">
+      <c r="C104" t="str">
         <v>square root of an integer</v>
       </c>
-      <c r="C104" t="str">
+      <c r="D104" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
+        <v>94</v>
+      </c>
+      <c r="B105" t="str">
         <v>Searching &amp; Sorting</v>
       </c>
-      <c r="B105" t="str">
+      <c r="C105" t="str">
         <v>Maximum and minimum of an array using minimum number of comparisons</v>
       </c>
-      <c r="C105" t="str">
+      <c r="D105" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
+        <v>95</v>
+      </c>
+      <c r="B106" t="str">
         <v>Searching &amp; Sorting</v>
       </c>
-      <c r="B106" t="str">
+      <c r="C106" t="str">
         <v>Optimum location of point to minimize total distance</v>
       </c>
-      <c r="C106" t="str">
+      <c r="D106" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
+        <v>96</v>
+      </c>
+      <c r="B107" t="str">
         <v>Searching &amp; Sorting</v>
       </c>
-      <c r="B107" t="str">
+      <c r="C107" t="str">
         <v>Find the repeating and the missing</v>
       </c>
-      <c r="C107" t="str">
+      <c r="D107" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
+        <v>97</v>
+      </c>
+      <c r="B108" t="str">
         <v>Searching &amp; Sorting</v>
       </c>
-      <c r="B108" t="str">
+      <c r="C108" t="str">
         <v>find majority element</v>
       </c>
-      <c r="C108" t="str">
+      <c r="D108" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
+        <v>98</v>
+      </c>
+      <c r="B109" t="str">
         <v>Searching &amp; Sorting</v>
       </c>
-      <c r="B109" t="str">
+      <c r="C109" t="str">
         <v>Searching in an array where adjacent differ by at most k</v>
       </c>
-      <c r="C109" t="str">
+      <c r="D109" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
+        <v>99</v>
+      </c>
+      <c r="B110" t="str">
         <v>Searching &amp; Sorting</v>
       </c>
-      <c r="B110" t="str">
+      <c r="C110" t="str">
         <v>find a pair with a given difference</v>
       </c>
-      <c r="C110" t="str">
+      <c r="D110" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
+        <v>100</v>
+      </c>
+      <c r="B111" t="str">
         <v>Searching &amp; Sorting</v>
       </c>
-      <c r="B111" t="str">
+      <c r="C111" t="str">
         <v>find four elements that sum to a given value</v>
       </c>
-      <c r="C111" t="str">
+      <c r="D111" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="112" xml:space="preserve">
       <c r="A112" t="str">
+        <v>101</v>
+      </c>
+      <c r="B112" t="str">
         <v>Searching &amp; Sorting</v>
       </c>
-      <c r="B112" t="str">
+      <c r="C112" t="str">
         <v>maximum sum such that no 2 elements are adjacent</v>
       </c>
-      <c r="C112" t="str">
-        <v>&lt;-&gt;</v>
-      </c>
-      <c r="E112" t="str" xml:space="preserve">
+      <c r="D112" t="str">
+        <v>yes</v>
+      </c>
+      <c r="F112" t="str" xml:space="preserve">
         <v xml:space="preserve">static int maximumsumnoadjacent(int arr[])
     {
         if (arr.length == 0) return 0;
@@ -1544,3824 +1845,4865 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
+        <v>102</v>
+      </c>
+      <c r="B113" t="str">
         <v>Searching &amp; Sorting</v>
       </c>
-      <c r="B113" t="str">
+      <c r="C113" t="str">
         <v>Count triplet with sum smaller than a given value</v>
       </c>
-      <c r="C113" t="str">
+      <c r="D113" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
+        <v>103</v>
+      </c>
+      <c r="B114" t="str">
         <v>Searching &amp; Sorting</v>
       </c>
-      <c r="B114" t="str">
+      <c r="C114" t="str">
         <v>merge 2 sorted arrays</v>
       </c>
-      <c r="C114" t="str">
+      <c r="D114" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
+        <v>104</v>
+      </c>
+      <c r="B115" t="str">
         <v>Searching &amp; Sorting</v>
       </c>
-      <c r="B115" t="str">
+      <c r="C115" t="str">
         <v>print all subarrays with 0 sum</v>
       </c>
-      <c r="C115" t="str">
+      <c r="D115" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
+        <v>105</v>
+      </c>
+      <c r="B116" t="str">
         <v>Searching &amp; Sorting</v>
       </c>
-      <c r="B116" t="str">
+      <c r="C116" t="str">
         <v>Product array Puzzle</v>
       </c>
-      <c r="C116" t="str">
+      <c r="D116" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
+        <v>106</v>
+      </c>
+      <c r="B117" t="str">
         <v>Searching &amp; Sorting</v>
       </c>
-      <c r="B117" t="str">
+      <c r="C117" t="str">
         <v>Sort array according to count of set bits</v>
       </c>
-      <c r="C117" t="str">
+      <c r="D117" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
+        <v>107</v>
+      </c>
+      <c r="B118" t="str">
         <v>Searching &amp; Sorting</v>
       </c>
-      <c r="B118" t="str">
+      <c r="C118" t="str">
         <v>minimum no. of swaps required to sort the array</v>
       </c>
-      <c r="C118" t="str">
+      <c r="D118" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
+        <v>108</v>
+      </c>
+      <c r="B119" t="str">
         <v>Searching &amp; Sorting</v>
       </c>
-      <c r="B119" t="str">
+      <c r="C119" t="str">
         <v>Bishu and Soldiers</v>
       </c>
-      <c r="C119" t="str">
+      <c r="D119" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
+        <v>109</v>
+      </c>
+      <c r="B120" t="str">
         <v>Searching &amp; Sorting</v>
       </c>
-      <c r="B120" t="str">
+      <c r="C120" t="str">
         <v>Rasta and Kheshtak</v>
       </c>
-      <c r="C120" t="str">
+      <c r="D120" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
+        <v>110</v>
+      </c>
+      <c r="B121" t="str">
         <v>Searching &amp; Sorting</v>
       </c>
-      <c r="B121" t="str">
+      <c r="C121" t="str">
         <v>Kth smallest number again</v>
       </c>
-      <c r="C121" t="str">
+      <c r="D121" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
+        <v>111</v>
+      </c>
+      <c r="B122" t="str">
         <v>Searching &amp; Sorting</v>
       </c>
-      <c r="B122" t="str">
+      <c r="C122" t="str">
         <v>Find pivot element in a sorted array</v>
       </c>
-      <c r="C122" t="str">
+      <c r="D122" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
+        <v>112</v>
+      </c>
+      <c r="B123" t="str">
         <v>Searching &amp; Sorting</v>
       </c>
-      <c r="B123" t="str">
+      <c r="C123" t="str">
         <v>K-th Element of Two Sorted Arrays</v>
       </c>
-      <c r="C123" t="str">
+      <c r="D123" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
+        <v>113</v>
+      </c>
+      <c r="B124" t="str">
         <v>Searching &amp; Sorting</v>
       </c>
-      <c r="B124" t="str">
+      <c r="C124" t="str">
         <v>Aggressive cows</v>
       </c>
-      <c r="C124" t="str">
+      <c r="D124" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
+        <v>114</v>
+      </c>
+      <c r="B125" t="str">
         <v>Searching &amp; Sorting</v>
       </c>
-      <c r="B125" t="str">
+      <c r="C125" t="str">
         <v>Book Allocation Problem</v>
       </c>
-      <c r="C125" t="str">
+      <c r="D125" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
+        <v>115</v>
+      </c>
+      <c r="B126" t="str">
         <v>Searching &amp; Sorting</v>
       </c>
-      <c r="B126" t="str">
+      <c r="C126" t="str">
         <v>EKOSPOJ:</v>
       </c>
-      <c r="C126" t="str">
+      <c r="D126" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
+        <v>116</v>
+      </c>
+      <c r="B127" t="str">
         <v>Searching &amp; Sorting</v>
       </c>
-      <c r="B127" t="str">
+      <c r="C127" t="str">
         <v>Job Scheduling Algo</v>
       </c>
-      <c r="C127" t="str">
+      <c r="D127" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
+        <v>117</v>
+      </c>
+      <c r="B128" t="str">
         <v>Searching &amp; Sorting</v>
       </c>
-      <c r="B128" t="str">
+      <c r="C128" t="str">
         <v>Missing Number in AP</v>
       </c>
-      <c r="C128" t="str">
+      <c r="D128" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
+        <v>118</v>
+      </c>
+      <c r="B129" t="str">
         <v>Searching &amp; Sorting</v>
       </c>
-      <c r="B129" t="str">
-        <v>Smallest number with atleastn trailing zeroes infactorial</v>
-      </c>
       <c r="C129" t="str">
+        <v>Smallest number with atleast n trailing zeroes infactorial</v>
+      </c>
+      <c r="D129" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
+        <v>119</v>
+      </c>
+      <c r="B130" t="str">
         <v>Searching &amp; Sorting</v>
       </c>
-      <c r="B130" t="str">
+      <c r="C130" t="str">
         <v>Painters Partition Problem:</v>
       </c>
-      <c r="C130" t="str">
+      <c r="D130" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
+        <v>120</v>
+      </c>
+      <c r="B131" t="str">
         <v>Searching &amp; Sorting</v>
       </c>
-      <c r="B131" t="str">
+      <c r="C131" t="str">
         <v>ROTI-Prata SPOJ</v>
       </c>
-      <c r="C131" t="str">
+      <c r="D131" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
+        <v>121</v>
+      </c>
+      <c r="B132" t="str">
         <v>Searching &amp; Sorting</v>
       </c>
-      <c r="B132" t="str">
+      <c r="C132" t="str">
         <v>DoubleHelix SPOJ</v>
       </c>
-      <c r="C132" t="str">
+      <c r="D132" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
+        <v>122</v>
+      </c>
+      <c r="B133" t="str">
         <v>Searching &amp; Sorting</v>
       </c>
-      <c r="B133" t="str">
+      <c r="C133" t="str">
         <v>Subset Sums</v>
       </c>
-      <c r="C133" t="str">
+      <c r="D133" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
+        <v>123</v>
+      </c>
+      <c r="B134" t="str">
         <v>Searching &amp; Sorting</v>
       </c>
-      <c r="B134" t="str">
+      <c r="C134" t="str">
         <v>Findthe inversion count</v>
       </c>
-      <c r="C134" t="str">
+      <c r="D134" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
+        <v>124</v>
+      </c>
+      <c r="B135" t="str">
         <v>Searching &amp; Sorting</v>
       </c>
-      <c r="B135" t="str">
+      <c r="C135" t="str">
         <v>Implement Merge-sort in-place</v>
       </c>
-      <c r="C135" t="str">
+      <c r="D135" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
+        <v>125</v>
+      </c>
+      <c r="B136" t="str">
         <v>Searching &amp; Sorting</v>
       </c>
-      <c r="B136" t="str">
+      <c r="C136" t="str">
         <v>Partitioning and Sorting Arrays with Many Repeated Entries</v>
       </c>
-      <c r="C136" t="str">
+      <c r="D136" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
+        <v>126</v>
+      </c>
+      <c r="B139" t="str">
         <v>LinkedList</v>
       </c>
-      <c r="B139" t="str">
+      <c r="C139" t="str">
         <v>Write a Program to reverse the Linked List. (Both Iterative and recursive)</v>
       </c>
-      <c r="C139" t="str">
+      <c r="D139" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
+        <v>127</v>
+      </c>
+      <c r="B140" t="str">
         <v>LinkedList</v>
       </c>
-      <c r="B140" t="str">
+      <c r="C140" t="str">
         <v>Reverse a Linked List in group of Given Size. [Very Imp]</v>
       </c>
-      <c r="C140" t="str">
+      <c r="D140" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
+        <v>128</v>
+      </c>
+      <c r="B141" t="str">
         <v>LinkedList</v>
       </c>
-      <c r="B141" t="str">
+      <c r="C141" t="str">
         <v>Write a program to Detect loop in a linked list.</v>
       </c>
-      <c r="C141" t="str">
+      <c r="D141" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
+        <v>129</v>
+      </c>
+      <c r="B142" t="str">
         <v>LinkedList</v>
       </c>
-      <c r="B142" t="str">
+      <c r="C142" t="str">
         <v>Write a program to Delete loop in a linked list.</v>
       </c>
-      <c r="C142" t="str">
+      <c r="D142" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
+        <v>130</v>
+      </c>
+      <c r="B143" t="str">
         <v>LinkedList</v>
       </c>
-      <c r="B143" t="str">
+      <c r="C143" t="str">
         <v xml:space="preserve">Find the starting point of the loop. </v>
       </c>
-      <c r="C143" t="str">
+      <c r="D143" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
+        <v>131</v>
+      </c>
+      <c r="B144" t="str">
         <v>LinkedList</v>
       </c>
-      <c r="B144" t="str">
+      <c r="C144" t="str">
         <v>Remove Duplicates in a sorted Linked List.</v>
       </c>
-      <c r="C144" t="str">
+      <c r="D144" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
+        <v>132</v>
+      </c>
+      <c r="B145" t="str">
         <v>LinkedList</v>
       </c>
-      <c r="B145" t="str">
+      <c r="C145" t="str">
         <v>Remove Duplicates in a Un-sorted Linked List.</v>
       </c>
-      <c r="C145" t="str">
+      <c r="D145" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
+        <v>133</v>
+      </c>
+      <c r="B146" t="str">
         <v>LinkedList</v>
       </c>
-      <c r="B146" t="str">
+      <c r="C146" t="str">
         <v>Write a Program to Move the last element to Front in a Linked List.</v>
       </c>
-      <c r="C146" t="str">
+      <c r="D146" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
+        <v>134</v>
+      </c>
+      <c r="B147" t="str">
         <v>LinkedList</v>
       </c>
-      <c r="B147" t="str">
+      <c r="C147" t="str">
         <v>Add “1” to a number represented as a Linked List.</v>
       </c>
-      <c r="C147" t="str">
+      <c r="D147" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
+        <v>135</v>
+      </c>
+      <c r="B148" t="str">
         <v>LinkedList</v>
       </c>
-      <c r="B148" t="str">
+      <c r="C148" t="str">
         <v>Add two numbers represented by linked lists.</v>
       </c>
-      <c r="C148" t="str">
+      <c r="D148" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
+        <v>136</v>
+      </c>
+      <c r="B149" t="str">
         <v>LinkedList</v>
       </c>
-      <c r="B149" t="str">
+      <c r="C149" t="str">
         <v>Intersection of two Sorted Linked List.</v>
       </c>
-      <c r="C149" t="str">
+      <c r="D149" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
+        <v>137</v>
+      </c>
+      <c r="B150" t="str">
         <v>LinkedList</v>
       </c>
-      <c r="B150" t="str">
+      <c r="C150" t="str">
         <v>Intersection Point of two Linked Lists.</v>
       </c>
-      <c r="C150" t="str">
+      <c r="D150" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
+        <v>138</v>
+      </c>
+      <c r="B151" t="str">
         <v>LinkedList</v>
       </c>
-      <c r="B151" t="str">
+      <c r="C151" t="str">
         <v>Merge Sort For Linked lists.[Very Important]</v>
       </c>
-      <c r="C151" t="str">
+      <c r="D151" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
+        <v>139</v>
+      </c>
+      <c r="B152" t="str">
         <v>LinkedList</v>
       </c>
-      <c r="B152" t="str">
+      <c r="C152" t="str">
         <v>Quicksort for Linked Lists.[Very Important]</v>
       </c>
-      <c r="C152" t="str">
+      <c r="D152" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
+        <v>140</v>
+      </c>
+      <c r="B153" t="str">
         <v>LinkedList</v>
       </c>
-      <c r="B153" t="str">
+      <c r="C153" t="str">
         <v>Find the middle Element of a linked list.</v>
       </c>
-      <c r="C153" t="str">
+      <c r="D153" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
+        <v>141</v>
+      </c>
+      <c r="B154" t="str">
         <v>LinkedList</v>
       </c>
-      <c r="B154" t="str">
+      <c r="C154" t="str">
         <v>Check if a linked list is a circular linked list.</v>
       </c>
-      <c r="C154" t="str">
+      <c r="D154" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
+        <v>142</v>
+      </c>
+      <c r="B155" t="str">
         <v>LinkedList</v>
       </c>
-      <c r="B155" t="str">
+      <c r="C155" t="str">
         <v>Split a Circular linked list into two halves.</v>
       </c>
-      <c r="C155" t="str">
+      <c r="D155" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
+        <v>143</v>
+      </c>
+      <c r="B156" t="str">
         <v>LinkedList</v>
       </c>
-      <c r="B156" t="str">
+      <c r="C156" t="str">
         <v>Write a Program to check whether the Singly Linked list is a palindrome or not.</v>
       </c>
-      <c r="C156" t="str">
+      <c r="D156" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
+        <v>144</v>
+      </c>
+      <c r="B157" t="str">
         <v>LinkedList</v>
       </c>
-      <c r="B157" t="str">
+      <c r="C157" t="str">
         <v>Deletion from a Circular Linked List.</v>
       </c>
-      <c r="C157" t="str">
+      <c r="D157" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
+        <v>145</v>
+      </c>
+      <c r="B158" t="str">
         <v>LinkedList</v>
       </c>
-      <c r="B158" t="str">
+      <c r="C158" t="str">
         <v>Reverse a Doubly Linked list.</v>
       </c>
-      <c r="C158" t="str">
+      <c r="D158" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
+        <v>146</v>
+      </c>
+      <c r="B159" t="str">
         <v>LinkedList</v>
       </c>
-      <c r="B159" t="str">
+      <c r="C159" t="str">
         <v>Find pairs with a given sum in a DLL.</v>
       </c>
-      <c r="C159" t="str">
+      <c r="D159" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
+        <v>147</v>
+      </c>
+      <c r="B160" t="str">
         <v>LinkedList</v>
       </c>
-      <c r="B160" t="str">
+      <c r="C160" t="str">
         <v>Count triplets in a sorted DLL whose sum is equal to given value “X”.</v>
       </c>
-      <c r="C160" t="str">
+      <c r="D160" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
+        <v>148</v>
+      </c>
+      <c r="B161" t="str">
         <v>LinkedList</v>
       </c>
-      <c r="B161" t="str">
+      <c r="C161" t="str">
         <v>Sort a “k”sorted Doubly Linked list.[Very IMP]</v>
       </c>
-      <c r="C161" t="str">
+      <c r="D161" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
+        <v>149</v>
+      </c>
+      <c r="B162" t="str">
         <v>LinkedList</v>
       </c>
-      <c r="B162" t="str">
+      <c r="C162" t="str">
         <v>Rotate DoublyLinked list by N nodes.</v>
       </c>
-      <c r="C162" t="str">
+      <c r="D162" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
+        <v>150</v>
+      </c>
+      <c r="B163" t="str">
         <v>LinkedList</v>
       </c>
-      <c r="B163" t="str">
+      <c r="C163" t="str">
         <v>Rotate a Doubly Linked list in group of Given Size.[Very IMP]</v>
       </c>
-      <c r="C163" t="str">
+      <c r="D163" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
+        <v>151</v>
+      </c>
+      <c r="B164" t="str">
         <v>LinkedList</v>
       </c>
-      <c r="B164" t="str">
+      <c r="C164" t="str">
         <v>Can we reverse a linked list in less than O(n) ?</v>
       </c>
-      <c r="C164" t="str">
+      <c r="D164" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
+        <v>152</v>
+      </c>
+      <c r="B165" t="str">
         <v>LinkedList</v>
       </c>
-      <c r="B165" t="str">
+      <c r="C165" t="str">
         <v>Why Quicksort is preferred for. Arrays and Merge Sort for LinkedLists ?</v>
       </c>
-      <c r="C165" t="str">
+      <c r="D165" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
+        <v>153</v>
+      </c>
+      <c r="B166" t="str">
         <v>LinkedList</v>
       </c>
-      <c r="B166" t="str">
+      <c r="C166" t="str">
         <v>Flatten a Linked List</v>
       </c>
-      <c r="C166" t="str">
+      <c r="D166" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
+        <v>154</v>
+      </c>
+      <c r="B167" t="str">
         <v>LinkedList</v>
       </c>
-      <c r="B167" t="str">
+      <c r="C167" t="str">
         <v>Sort a LL of 0's, 1's and 2's</v>
       </c>
-      <c r="C167" t="str">
+      <c r="D167" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
+        <v>155</v>
+      </c>
+      <c r="B168" t="str">
         <v>LinkedList</v>
       </c>
-      <c r="B168" t="str">
+      <c r="C168" t="str">
         <v>Clone a linked list with next and random pointer</v>
       </c>
-      <c r="C168" t="str">
+      <c r="D168" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
+        <v>156</v>
+      </c>
+      <c r="B169" t="str">
         <v>LinkedList</v>
       </c>
-      <c r="B169" t="str">
+      <c r="C169" t="str">
         <v>Merge K sorted Linked list</v>
       </c>
-      <c r="C169" t="str">
+      <c r="D169" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
+        <v>157</v>
+      </c>
+      <c r="B170" t="str">
         <v>LinkedList</v>
       </c>
-      <c r="B170" t="str">
+      <c r="C170" t="str">
         <v>Multiply 2 no. represented by LL</v>
       </c>
-      <c r="C170" t="str">
+      <c r="D170" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
+        <v>158</v>
+      </c>
+      <c r="B171" t="str">
         <v>LinkedList</v>
       </c>
-      <c r="B171" t="str">
+      <c r="C171" t="str">
         <v>Delete nodes which have a greater value on right side</v>
       </c>
-      <c r="C171" t="str">
+      <c r="D171" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
+        <v>159</v>
+      </c>
+      <c r="B172" t="str">
         <v>LinkedList</v>
       </c>
-      <c r="B172" t="str">
+      <c r="C172" t="str">
         <v>Segregate even and odd nodes in a Linked List</v>
       </c>
-      <c r="C172" t="str">
+      <c r="D172" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
+        <v>160</v>
+      </c>
+      <c r="B173" t="str">
         <v>LinkedList</v>
       </c>
-      <c r="B173" t="str">
+      <c r="C173" t="str">
         <v>Program for n’th node from the end of a Linked List</v>
       </c>
-      <c r="C173" t="str">
+      <c r="D173" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
+        <v>161</v>
+      </c>
+      <c r="B174" t="str">
         <v>LinkedList</v>
       </c>
-      <c r="B174" t="str">
+      <c r="C174" t="str">
         <v>Find the first non-repeating character from a stream of characters</v>
       </c>
-      <c r="C174" t="str">
+      <c r="D174" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
+        <v>162</v>
+      </c>
+      <c r="B177" t="str">
         <v>Binary Trees</v>
       </c>
-      <c r="B177" t="str">
+      <c r="C177" t="str">
         <v>level order traversal</v>
       </c>
-      <c r="C177" t="str">
+      <c r="D177" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
+        <v>163</v>
+      </c>
+      <c r="B178" t="str">
         <v>Binary Trees</v>
       </c>
-      <c r="B178" t="str">
+      <c r="C178" t="str">
         <v>Reverse Level Order traversal</v>
       </c>
-      <c r="C178" t="str">
+      <c r="D178" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
+        <v>164</v>
+      </c>
+      <c r="B179" t="str">
         <v>Binary Trees</v>
       </c>
-      <c r="B179" t="str">
+      <c r="C179" t="str">
         <v>Height of a tree</v>
       </c>
-      <c r="C179" t="str">
+      <c r="D179" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
+        <v>165</v>
+      </c>
+      <c r="B180" t="str">
         <v>Binary Trees</v>
       </c>
-      <c r="B180" t="str">
+      <c r="C180" t="str">
         <v>Diameter of a tree</v>
       </c>
-      <c r="C180" t="str">
+      <c r="D180" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
+        <v>166</v>
+      </c>
+      <c r="B181" t="str">
         <v>Binary Trees</v>
       </c>
-      <c r="B181" t="str">
+      <c r="C181" t="str">
         <v>Mirror of a tree</v>
       </c>
-      <c r="C181" t="str">
+      <c r="D181" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
+        <v>167</v>
+      </c>
+      <c r="B182" t="str">
         <v>Binary Trees</v>
       </c>
-      <c r="B182" t="str">
+      <c r="C182" t="str">
         <v>Inorder Traversal of a tree both using recursion and Iteration</v>
       </c>
-      <c r="C182" t="str">
+      <c r="D182" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
+        <v>168</v>
+      </c>
+      <c r="B183" t="str">
         <v>Binary Trees</v>
       </c>
-      <c r="B183" t="str">
+      <c r="C183" t="str">
         <v>Preorder Traversal of a tree both using recursion and Iteration</v>
       </c>
-      <c r="C183" t="str">
+      <c r="D183" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
+        <v>169</v>
+      </c>
+      <c r="B184" t="str">
         <v>Binary Trees</v>
       </c>
-      <c r="B184" t="str">
+      <c r="C184" t="str">
         <v>Postorder Traversal of a tree both using recursion and Iteration</v>
       </c>
-      <c r="C184" t="str">
+      <c r="D184" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
+        <v>170</v>
+      </c>
+      <c r="B185" t="str">
         <v>Binary Trees</v>
       </c>
-      <c r="B185" t="str">
+      <c r="C185" t="str">
         <v>Left View of a tree</v>
       </c>
-      <c r="C185" t="str">
+      <c r="D185" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
+        <v>171</v>
+      </c>
+      <c r="B186" t="str">
         <v>Binary Trees</v>
       </c>
-      <c r="B186" t="str">
+      <c r="C186" t="str">
         <v>Right View of Tree</v>
       </c>
-      <c r="C186" t="str">
+      <c r="D186" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
+        <v>172</v>
+      </c>
+      <c r="B187" t="str">
         <v>Binary Trees</v>
       </c>
-      <c r="B187" t="str">
+      <c r="C187" t="str">
         <v>Top View of a tree</v>
       </c>
-      <c r="C187" t="str">
+      <c r="D187" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
+        <v>173</v>
+      </c>
+      <c r="B188" t="str">
         <v>Binary Trees</v>
       </c>
-      <c r="B188" t="str">
+      <c r="C188" t="str">
         <v>Bottom View of a tree</v>
       </c>
-      <c r="C188" t="str">
+      <c r="D188" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
+        <v>174</v>
+      </c>
+      <c r="B189" t="str">
         <v>Binary Trees</v>
       </c>
-      <c r="B189" t="str">
+      <c r="C189" t="str">
         <v>Zig-Zag traversal of a binary tree</v>
       </c>
-      <c r="C189" t="str">
+      <c r="D189" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
+        <v>175</v>
+      </c>
+      <c r="B190" t="str">
         <v>Binary Trees</v>
       </c>
-      <c r="B190" t="str">
+      <c r="C190" t="str">
         <v>Check if a tree is balanced or not</v>
       </c>
-      <c r="C190" t="str">
+      <c r="D190" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
+        <v>176</v>
+      </c>
+      <c r="B191" t="str">
         <v>Binary Trees</v>
       </c>
-      <c r="B191" t="str">
+      <c r="C191" t="str">
         <v>Diagnol Traversal of a Binary tree</v>
       </c>
-      <c r="C191" t="str">
+      <c r="D191" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
+        <v>177</v>
+      </c>
+      <c r="B192" t="str">
         <v>Binary Trees</v>
       </c>
-      <c r="B192" t="str">
+      <c r="C192" t="str">
         <v>Boundary traversal of a Binary tree</v>
       </c>
-      <c r="C192" t="str">
+      <c r="D192" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
+        <v>178</v>
+      </c>
+      <c r="B193" t="str">
         <v>Binary Trees</v>
       </c>
-      <c r="B193" t="str">
+      <c r="C193" t="str">
         <v>Construct Binary Tree from String with Bracket Representation</v>
       </c>
-      <c r="C193" t="str">
+      <c r="D193" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
+        <v>179</v>
+      </c>
+      <c r="B194" t="str">
         <v>Binary Trees</v>
       </c>
-      <c r="B194" t="str">
+      <c r="C194" t="str">
         <v>Convert Binary tree into Doubly Linked List</v>
       </c>
-      <c r="C194" t="str">
+      <c r="D194" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
+        <v>180</v>
+      </c>
+      <c r="B195" t="str">
         <v>Binary Trees</v>
       </c>
-      <c r="B195" t="str">
+      <c r="C195" t="str">
         <v>Convert Binary tree into Sum tree</v>
       </c>
-      <c r="C195" t="str">
+      <c r="D195" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
+        <v>181</v>
+      </c>
+      <c r="B196" t="str">
         <v>Binary Trees</v>
       </c>
-      <c r="B196" t="str">
+      <c r="C196" t="str">
         <v>Construct Binary tree from Inorder and preorder traversal</v>
       </c>
-      <c r="C196" t="str">
+      <c r="D196" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
+        <v>182</v>
+      </c>
+      <c r="B197" t="str">
         <v>Binary Trees</v>
       </c>
-      <c r="B197" t="str">
+      <c r="C197" t="str">
         <v>Find minimum swaps required to convert a Binary tree into BST</v>
       </c>
-      <c r="C197" t="str">
+      <c r="D197" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
+        <v>183</v>
+      </c>
+      <c r="B198" t="str">
         <v>Binary Trees</v>
       </c>
-      <c r="B198" t="str">
+      <c r="C198" t="str">
         <v>Check if Binary tree is Sum tree or not</v>
       </c>
-      <c r="C198" t="str">
+      <c r="D198" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
+        <v>184</v>
+      </c>
+      <c r="B199" t="str">
         <v>Binary Trees</v>
       </c>
-      <c r="B199" t="str">
+      <c r="C199" t="str">
         <v>Check if all leaf nodes are at same level or not</v>
       </c>
-      <c r="C199" t="str">
+      <c r="D199" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
+        <v>185</v>
+      </c>
+      <c r="B200" t="str">
         <v>Binary Trees</v>
       </c>
-      <c r="B200" t="str">
+      <c r="C200" t="str">
         <v>Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]</v>
       </c>
-      <c r="C200" t="str">
+      <c r="D200" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
+        <v>186</v>
+      </c>
+      <c r="B201" t="str">
         <v>Binary Trees</v>
       </c>
-      <c r="B201" t="str">
+      <c r="C201" t="str">
         <v>Check if 2 trees are mirror or not</v>
       </c>
-      <c r="C201" t="str">
+      <c r="D201" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
+        <v>187</v>
+      </c>
+      <c r="B202" t="str">
         <v>Binary Trees</v>
       </c>
-      <c r="B202" t="str">
+      <c r="C202" t="str">
         <v xml:space="preserve">Sum of Nodes on the Longest path from root to leaf node </v>
       </c>
-      <c r="C202" t="str">
+      <c r="D202" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
+        <v>188</v>
+      </c>
+      <c r="B203" t="str">
         <v>Binary Trees</v>
       </c>
-      <c r="B203" t="str">
+      <c r="C203" t="str">
         <v>Check if given graph is tree or not.  [ IMP ]</v>
       </c>
-      <c r="C203" t="str">
+      <c r="D203" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
+        <v>189</v>
+      </c>
+      <c r="B204" t="str">
         <v>Binary Trees</v>
       </c>
-      <c r="B204" t="str">
+      <c r="C204" t="str">
         <v>Find Largest subtree sum in a tree</v>
       </c>
-      <c r="C204" t="str">
+      <c r="D204" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
+        <v>190</v>
+      </c>
+      <c r="B205" t="str">
         <v>Binary Trees</v>
       </c>
-      <c r="B205" t="str">
+      <c r="C205" t="str">
         <v xml:space="preserve">Maximum Sum of nodes in Binary tree such that no two are adjacent </v>
       </c>
-      <c r="C205" t="str">
+      <c r="D205" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
+        <v>191</v>
+      </c>
+      <c r="B206" t="str">
         <v>Binary Trees</v>
       </c>
-      <c r="B206" t="str">
+      <c r="C206" t="str">
         <v>Print all "K" Sum paths in a Binary tree</v>
       </c>
-      <c r="C206" t="str">
+      <c r="D206" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
+        <v>192</v>
+      </c>
+      <c r="B207" t="str">
         <v>Binary Trees</v>
       </c>
-      <c r="B207" t="str">
+      <c r="C207" t="str">
         <v>Find LCA in a Binary tree</v>
       </c>
-      <c r="C207" t="str">
+      <c r="D207" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
+        <v>193</v>
+      </c>
+      <c r="B208" t="str">
         <v>Binary Trees</v>
       </c>
-      <c r="B208" t="str">
+      <c r="C208" t="str">
         <v>Find distance between 2 nodes in a Binary tree</v>
       </c>
-      <c r="C208" t="str">
+      <c r="D208" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
+        <v>194</v>
+      </c>
+      <c r="B209" t="str">
         <v>Binary Trees</v>
       </c>
-      <c r="B209" t="str">
+      <c r="C209" t="str">
         <v>Kth Ancestor of node in a Binary tree</v>
       </c>
-      <c r="C209" t="str">
+      <c r="D209" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
+        <v>195</v>
+      </c>
+      <c r="B210" t="str">
         <v>Binary Trees</v>
       </c>
-      <c r="B210" t="str">
+      <c r="C210" t="str">
         <v>Find all Duplicate subtrees in a Binary tree [ IMP ]</v>
       </c>
-      <c r="C210" t="str">
+      <c r="D210" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
+        <v>196</v>
+      </c>
+      <c r="B211" t="str">
         <v>Binary Trees</v>
       </c>
-      <c r="B211" t="str">
+      <c r="C211" t="str">
         <v>Tree Isomorphism Problem</v>
       </c>
-      <c r="C211" t="str">
+      <c r="D211" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
+        <v>197</v>
+      </c>
+      <c r="B214" t="str">
         <v>Binary Search Trees</v>
       </c>
-      <c r="B214" t="str">
+      <c r="C214" t="str">
         <v>Fina a value in a BST</v>
       </c>
-      <c r="C214" t="str">
+      <c r="D214" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
+        <v>198</v>
+      </c>
+      <c r="B215" t="str">
         <v>Binary Search Trees</v>
       </c>
-      <c r="B215" t="str">
+      <c r="C215" t="str">
         <v>Deletion of a node in a BST</v>
       </c>
-      <c r="C215" t="str">
+      <c r="D215" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
+        <v>199</v>
+      </c>
+      <c r="B216" t="str">
         <v>Binary Search Trees</v>
       </c>
-      <c r="B216" t="str">
+      <c r="C216" t="str">
         <v>Find min and max value in a BST</v>
       </c>
-      <c r="C216" t="str">
+      <c r="D216" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
+        <v>200</v>
+      </c>
+      <c r="B217" t="str">
         <v>Binary Search Trees</v>
       </c>
-      <c r="B217" t="str">
+      <c r="C217" t="str">
         <v>Find inorder successor and inorder predecessor in a BST</v>
       </c>
-      <c r="C217" t="str">
+      <c r="D217" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
+        <v>201</v>
+      </c>
+      <c r="B218" t="str">
         <v>Binary Search Trees</v>
       </c>
-      <c r="B218" t="str">
+      <c r="C218" t="str">
         <v xml:space="preserve">Check if a tree is a BST or not </v>
       </c>
-      <c r="C218" t="str">
+      <c r="D218" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
+        <v>202</v>
+      </c>
+      <c r="B219" t="str">
         <v>Binary Search Trees</v>
       </c>
-      <c r="B219" t="str">
+      <c r="C219" t="str">
         <v>Populate Inorder successor of all nodes</v>
       </c>
-      <c r="C219" t="str">
+      <c r="D219" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
+        <v>203</v>
+      </c>
+      <c r="B220" t="str">
         <v>Binary Search Trees</v>
       </c>
-      <c r="B220" t="str">
+      <c r="C220" t="str">
         <v>Find LCA  of 2 nodes in a BST</v>
       </c>
-      <c r="C220" t="str">
+      <c r="D220" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
+        <v>204</v>
+      </c>
+      <c r="B221" t="str">
         <v>Binary Search Trees</v>
       </c>
-      <c r="B221" t="str">
+      <c r="C221" t="str">
         <v>Construct BST from preorder traversal</v>
       </c>
-      <c r="C221" t="str">
+      <c r="D221" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
+        <v>205</v>
+      </c>
+      <c r="B222" t="str">
         <v>Binary Search Trees</v>
       </c>
-      <c r="B222" t="str">
+      <c r="C222" t="str">
         <v>Convert Binary tree into BST</v>
       </c>
-      <c r="C222" t="str">
+      <c r="D222" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
+        <v>206</v>
+      </c>
+      <c r="B223" t="str">
         <v>Binary Search Trees</v>
       </c>
-      <c r="B223" t="str">
+      <c r="C223" t="str">
         <v>Convert a normal BST into a Balanced BST</v>
       </c>
-      <c r="C223" t="str">
+      <c r="D223" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
+        <v>207</v>
+      </c>
+      <c r="B224" t="str">
         <v>Binary Search Trees</v>
       </c>
-      <c r="B224" t="str">
+      <c r="C224" t="str">
         <v>Merge two BST [ V.V.V&gt;IMP ]</v>
       </c>
-      <c r="C224" t="str">
+      <c r="D224" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
+        <v>208</v>
+      </c>
+      <c r="B225" t="str">
         <v>Binary Search Trees</v>
       </c>
-      <c r="B225" t="str">
+      <c r="C225" t="str">
         <v>Find Kth largest element in a BST</v>
       </c>
-      <c r="C225" t="str">
+      <c r="D225" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
+        <v>209</v>
+      </c>
+      <c r="B226" t="str">
         <v>Binary Search Trees</v>
       </c>
-      <c r="B226" t="str">
+      <c r="C226" t="str">
         <v>Find Kth smallest element in a BST</v>
       </c>
-      <c r="C226" t="str">
+      <c r="D226" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
+        <v>210</v>
+      </c>
+      <c r="B227" t="str">
         <v>Binary Search Trees</v>
       </c>
-      <c r="B227" t="str">
+      <c r="C227" t="str">
         <v>Count pairs from 2 BST whose sum is equal to given value "X"</v>
       </c>
-      <c r="C227" t="str">
+      <c r="D227" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
+        <v>211</v>
+      </c>
+      <c r="B228" t="str">
         <v>Binary Search Trees</v>
       </c>
-      <c r="B228" t="str">
+      <c r="C228" t="str">
         <v>Find the median of BST in O(n) time and O(1) space</v>
       </c>
-      <c r="C228" t="str">
+      <c r="D228" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
+        <v>212</v>
+      </c>
+      <c r="B229" t="str">
         <v>Binary Search Trees</v>
       </c>
-      <c r="B229" t="str">
+      <c r="C229" t="str">
         <v>Count BST ndoes that lie in a given range</v>
       </c>
-      <c r="C229" t="str">
+      <c r="D229" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
+        <v>213</v>
+      </c>
+      <c r="B230" t="str">
         <v>Binary Search Trees</v>
       </c>
-      <c r="B230" t="str">
+      <c r="C230" t="str">
         <v>Replace every element with the least greater element on its right</v>
       </c>
-      <c r="C230" t="str">
+      <c r="D230" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
+        <v>214</v>
+      </c>
+      <c r="B231" t="str">
         <v>Binary Search Trees</v>
       </c>
-      <c r="B231" t="str">
+      <c r="C231" t="str">
         <v>Given "n" appointments, find the conflicting appointments</v>
       </c>
-      <c r="C231" t="str">
+      <c r="D231" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
+        <v>215</v>
+      </c>
+      <c r="B232" t="str">
         <v>Binary Search Trees</v>
       </c>
-      <c r="B232" t="str">
+      <c r="C232" t="str">
         <v>Check preorder is valid or not</v>
       </c>
-      <c r="C232" t="str">
+      <c r="D232" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
+        <v>216</v>
+      </c>
+      <c r="B233" t="str">
         <v>Binary Search Trees</v>
       </c>
-      <c r="B233" t="str">
+      <c r="C233" t="str">
         <v>Check whether BST contains Dead end</v>
       </c>
-      <c r="C233" t="str">
+      <c r="D233" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
+        <v>217</v>
+      </c>
+      <c r="B234" t="str">
         <v>Binary Search Trees</v>
       </c>
-      <c r="B234" t="str">
+      <c r="C234" t="str">
         <v>Largest BST in a Binary Tree [ V.V.V.V.V IMP ]</v>
       </c>
-      <c r="C234" t="str">
+      <c r="D234" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
+        <v>218</v>
+      </c>
+      <c r="B235" t="str">
         <v>Binary Search Trees</v>
       </c>
-      <c r="B235" t="str">
+      <c r="C235" t="str">
         <v>Flatten BST to sorted list</v>
       </c>
-      <c r="C235" t="str">
+      <c r="D235" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
+        <v>219</v>
+      </c>
+      <c r="B238" t="str">
         <v>Greedy</v>
       </c>
-      <c r="B238" t="str">
+      <c r="C238" t="str">
         <v>Activity Selection Problem</v>
       </c>
-      <c r="C238" t="str">
+      <c r="D238" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
+        <v>220</v>
+      </c>
+      <c r="B239" t="str">
         <v>Greedy</v>
       </c>
-      <c r="B239" t="str">
+      <c r="C239" t="str">
         <v>Job SequencingProblem</v>
       </c>
-      <c r="C239" t="str">
+      <c r="D239" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
+        <v>221</v>
+      </c>
+      <c r="B240" t="str">
         <v>Greedy</v>
       </c>
-      <c r="B240" t="str">
+      <c r="C240" t="str">
         <v>Huffman Coding</v>
       </c>
-      <c r="C240" t="str">
+      <c r="D240" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
+        <v>222</v>
+      </c>
+      <c r="B241" t="str">
         <v>Greedy</v>
       </c>
-      <c r="B241" t="str">
+      <c r="C241" t="str">
         <v>Water Connection Problem</v>
       </c>
-      <c r="C241" t="str">
+      <c r="D241" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
+        <v>223</v>
+      </c>
+      <c r="B242" t="str">
         <v>Greedy</v>
       </c>
-      <c r="B242" t="str">
+      <c r="C242" t="str">
         <v>Fractional Knapsack Problem</v>
       </c>
-      <c r="C242" t="str">
+      <c r="D242" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
+        <v>224</v>
+      </c>
+      <c r="B243" t="str">
         <v>Greedy</v>
       </c>
-      <c r="B243" t="str">
+      <c r="C243" t="str">
         <v>Greedy Algorithm to find Minimum number of Coins</v>
       </c>
-      <c r="C243" t="str">
+      <c r="D243" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
+        <v>225</v>
+      </c>
+      <c r="B244" t="str">
         <v>Greedy</v>
       </c>
-      <c r="B244" t="str">
+      <c r="C244" t="str">
         <v>Maximum trains for which stoppage can be provided</v>
       </c>
-      <c r="C244" t="str">
+      <c r="D244" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
+        <v>226</v>
+      </c>
+      <c r="B245" t="str">
         <v>Greedy</v>
       </c>
-      <c r="B245" t="str">
+      <c r="C245" t="str">
         <v>Minimum Platforms Problem</v>
       </c>
-      <c r="C245" t="str">
+      <c r="D245" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
+        <v>227</v>
+      </c>
+      <c r="B246" t="str">
         <v>Greedy</v>
       </c>
-      <c r="B246" t="str">
+      <c r="C246" t="str">
         <v>Buy Maximum Stocks if i stocks can be bought on i-th day</v>
       </c>
-      <c r="C246" t="str">
+      <c r="D246" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
+        <v>228</v>
+      </c>
+      <c r="B247" t="str">
         <v>Greedy</v>
       </c>
-      <c r="B247" t="str">
+      <c r="C247" t="str">
         <v>Find the minimum and maximum amount to buy all N candies</v>
       </c>
-      <c r="C247" t="str">
+      <c r="D247" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
+        <v>229</v>
+      </c>
+      <c r="B248" t="str">
         <v>Greedy</v>
       </c>
-      <c r="B248" t="str">
+      <c r="C248" t="str">
         <v>Minimize Cash Flow among a given set of friends who have borrowed money from each other</v>
       </c>
-      <c r="C248" t="str">
+      <c r="D248" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
+        <v>230</v>
+      </c>
+      <c r="B249" t="str">
         <v>Greedy</v>
       </c>
-      <c r="B249" t="str">
+      <c r="C249" t="str">
         <v>Minimum Cost to cut a board into squares</v>
       </c>
-      <c r="C249" t="str">
+      <c r="D249" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
+        <v>231</v>
+      </c>
+      <c r="B250" t="str">
         <v>Greedy</v>
       </c>
-      <c r="B250" t="str">
+      <c r="C250" t="str">
         <v>Check if it is possible to survive on Island</v>
       </c>
-      <c r="C250" t="str">
+      <c r="D250" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
+        <v>232</v>
+      </c>
+      <c r="B251" t="str">
         <v>Greedy</v>
       </c>
-      <c r="B251" t="str">
+      <c r="C251" t="str">
         <v>Find maximum meetings in one room</v>
       </c>
-      <c r="C251" t="str">
+      <c r="D251" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
+        <v>233</v>
+      </c>
+      <c r="B252" t="str">
         <v>Greedy</v>
       </c>
-      <c r="B252" t="str">
+      <c r="C252" t="str">
         <v>Maximum product subset of an array</v>
       </c>
-      <c r="C252" t="str">
+      <c r="D252" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
+        <v>234</v>
+      </c>
+      <c r="B253" t="str">
         <v>Greedy</v>
       </c>
-      <c r="B253" t="str">
+      <c r="C253" t="str">
         <v>Maximize array sum after K negations</v>
       </c>
-      <c r="C253" t="str">
+      <c r="D253" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
+        <v>235</v>
+      </c>
+      <c r="B254" t="str">
         <v>Greedy</v>
       </c>
-      <c r="B254" t="str">
+      <c r="C254" t="str">
         <v>Maximize the sum of arr[i]*i</v>
       </c>
-      <c r="C254" t="str">
+      <c r="D254" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
+        <v>236</v>
+      </c>
+      <c r="B255" t="str">
         <v>Greedy</v>
       </c>
-      <c r="B255" t="str">
+      <c r="C255" t="str">
         <v>Maximum sum of absolute difference of an array</v>
       </c>
-      <c r="C255" t="str">
+      <c r="D255" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
+        <v>237</v>
+      </c>
+      <c r="B256" t="str">
         <v>Greedy</v>
       </c>
-      <c r="B256" t="str">
+      <c r="C256" t="str">
         <v>Maximize sum of consecutive differences in a circular array</v>
       </c>
-      <c r="C256" t="str">
+      <c r="D256" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
+        <v>238</v>
+      </c>
+      <c r="B257" t="str">
         <v>Greedy</v>
       </c>
-      <c r="B257" t="str">
+      <c r="C257" t="str">
         <v>Minimum sum of absolute difference of pairs of two arrays</v>
       </c>
-      <c r="C257" t="str">
+      <c r="D257" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
+        <v>239</v>
+      </c>
+      <c r="B258" t="str">
         <v>Greedy</v>
       </c>
-      <c r="B258" t="str">
+      <c r="C258" t="str">
         <v>Program for Shortest Job First (or SJF) CPU Scheduling</v>
       </c>
-      <c r="C258" t="str">
+      <c r="D258" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
+        <v>240</v>
+      </c>
+      <c r="B259" t="str">
         <v>Greedy</v>
       </c>
-      <c r="B259" t="str">
+      <c r="C259" t="str">
         <v>Program for Least Recently Used (LRU) Page Replacement algorithm</v>
       </c>
-      <c r="C259" t="str">
+      <c r="D259" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
+        <v>241</v>
+      </c>
+      <c r="B260" t="str">
         <v>Greedy</v>
       </c>
-      <c r="B260" t="str">
+      <c r="C260" t="str">
         <v>Smallest subset with sum greater than all other elements</v>
       </c>
-      <c r="C260" t="str">
+      <c r="D260" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
+        <v>242</v>
+      </c>
+      <c r="B261" t="str">
         <v>Greedy</v>
       </c>
-      <c r="B261" t="str">
+      <c r="C261" t="str">
         <v>Chocolate Distribution Problem</v>
       </c>
-      <c r="C261" t="str">
+      <c r="D261" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
+        <v>243</v>
+      </c>
+      <c r="B262" t="str">
         <v>Greedy</v>
       </c>
-      <c r="B262" t="str">
+      <c r="C262" t="str">
         <v>DEFKIN -Defense of a Kingdom</v>
       </c>
-      <c r="C262" t="str">
+      <c r="D262" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
+        <v>244</v>
+      </c>
+      <c r="B263" t="str">
         <v>Greedy</v>
       </c>
-      <c r="B263" t="str">
+      <c r="C263" t="str">
         <v>DIEHARD -DIE HARD</v>
       </c>
-      <c r="C263" t="str">
+      <c r="D263" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
+        <v>245</v>
+      </c>
+      <c r="B264" t="str">
         <v>Greedy</v>
       </c>
-      <c r="B264" t="str">
+      <c r="C264" t="str">
         <v>GERGOVIA -Wine trading in Gergovia</v>
       </c>
-      <c r="C264" t="str">
+      <c r="D264" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
+        <v>246</v>
+      </c>
+      <c r="B265" t="str">
         <v>Greedy</v>
       </c>
-      <c r="B265" t="str">
+      <c r="C265" t="str">
         <v>Picking Up Chicks</v>
       </c>
-      <c r="C265" t="str">
+      <c r="D265" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
+        <v>247</v>
+      </c>
+      <c r="B266" t="str">
         <v>Greedy</v>
       </c>
-      <c r="B266" t="str">
+      <c r="C266" t="str">
         <v>CHOCOLA –Chocolate</v>
       </c>
-      <c r="C266" t="str">
+      <c r="D266" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
+        <v>248</v>
+      </c>
+      <c r="B267" t="str">
         <v>Greedy</v>
       </c>
-      <c r="B267" t="str">
+      <c r="C267" t="str">
         <v>ARRANGE -Arranging Amplifiers</v>
       </c>
-      <c r="C267" t="str">
+      <c r="D267" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
+        <v>249</v>
+      </c>
+      <c r="B268" t="str">
         <v>Greedy</v>
       </c>
-      <c r="B268" t="str">
+      <c r="C268" t="str">
         <v>K Centers Problem</v>
       </c>
-      <c r="C268" t="str">
+      <c r="D268" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
+        <v>250</v>
+      </c>
+      <c r="B269" t="str">
         <v>Greedy</v>
       </c>
-      <c r="B269" t="str">
+      <c r="C269" t="str">
         <v>Minimum Cost of ropes</v>
       </c>
-      <c r="C269" t="str">
+      <c r="D269" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
+        <v>251</v>
+      </c>
+      <c r="B270" t="str">
         <v>Greedy</v>
       </c>
-      <c r="B270" t="str">
+      <c r="C270" t="str">
         <v>Find smallest number with given number of digits and sum of digits</v>
       </c>
-      <c r="C270" t="str">
+      <c r="D270" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
+        <v>252</v>
+      </c>
+      <c r="B271" t="str">
         <v>Greedy</v>
       </c>
-      <c r="B271" t="str">
+      <c r="C271" t="str">
         <v>Rearrange characters in a string such that no two adjacent are same</v>
       </c>
-      <c r="C271" t="str">
+      <c r="D271" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
+        <v>253</v>
+      </c>
+      <c r="B272" t="str">
         <v>Greedy</v>
       </c>
-      <c r="B272" t="str">
+      <c r="C272" t="str">
         <v>Find maximum sum possible equal sum of three stacks</v>
       </c>
-      <c r="C272" t="str">
+      <c r="D272" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
+        <v>254</v>
+      </c>
+      <c r="B275" t="str">
         <v>BackTracking</v>
       </c>
-      <c r="B275" t="str">
+      <c r="C275" t="str">
         <v>Rat in a maze Problem</v>
       </c>
-      <c r="C275" t="str">
+      <c r="D275" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
+        <v>255</v>
+      </c>
+      <c r="B276" t="str">
         <v>BackTracking</v>
       </c>
-      <c r="B276" t="str">
+      <c r="C276" t="str">
         <v>Printing all solutions in N-Queen Problem</v>
       </c>
-      <c r="C276" t="str">
+      <c r="D276" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="str">
+        <v>256</v>
+      </c>
+      <c r="B277" t="str">
         <v>BackTracking</v>
       </c>
-      <c r="B277" t="str">
+      <c r="C277" t="str">
         <v>Word Break Problem using Backtracking</v>
       </c>
-      <c r="C277" t="str">
+      <c r="D277" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="str">
+        <v>257</v>
+      </c>
+      <c r="B278" t="str">
         <v>BackTracking</v>
       </c>
-      <c r="B278" t="str">
+      <c r="C278" t="str">
         <v>Remove Invalid Parentheses</v>
       </c>
-      <c r="C278" t="str">
+      <c r="D278" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="str">
+        <v>258</v>
+      </c>
+      <c r="B279" t="str">
         <v>BackTracking</v>
       </c>
-      <c r="B279" t="str">
+      <c r="C279" t="str">
         <v>Sudoku Solver</v>
       </c>
-      <c r="C279" t="str">
+      <c r="D279" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="str">
+        <v>259</v>
+      </c>
+      <c r="B280" t="str">
         <v>BackTracking</v>
       </c>
-      <c r="B280" t="str">
+      <c r="C280" t="str">
         <v>m Coloring Problem</v>
       </c>
-      <c r="C280" t="str">
+      <c r="D280" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="str">
+        <v>260</v>
+      </c>
+      <c r="B281" t="str">
         <v>BackTracking</v>
       </c>
-      <c r="B281" t="str">
+      <c r="C281" t="str">
         <v>Print all palindromic partitions of a string</v>
       </c>
-      <c r="C281" t="str">
+      <c r="D281" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="str">
+        <v>261</v>
+      </c>
+      <c r="B282" t="str">
         <v>BackTracking</v>
       </c>
-      <c r="B282" t="str">
+      <c r="C282" t="str">
         <v>Subset Sum Problem</v>
       </c>
-      <c r="C282" t="str">
+      <c r="D282" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="str">
+        <v>262</v>
+      </c>
+      <c r="B283" t="str">
         <v>BackTracking</v>
       </c>
-      <c r="B283" t="str">
+      <c r="C283" t="str">
         <v>The Knight’s tour problem</v>
       </c>
-      <c r="C283" t="str">
+      <c r="D283" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="str">
+        <v>263</v>
+      </c>
+      <c r="B284" t="str">
         <v>BackTracking</v>
       </c>
-      <c r="B284" t="str">
+      <c r="C284" t="str">
         <v>Tug of War</v>
       </c>
-      <c r="C284" t="str">
+      <c r="D284" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="str">
+        <v>264</v>
+      </c>
+      <c r="B285" t="str">
         <v>BackTracking</v>
       </c>
-      <c r="B285" t="str">
+      <c r="C285" t="str">
         <v>Find shortest safe route in a path with landmines</v>
       </c>
-      <c r="C285" t="str">
+      <c r="D285" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="str">
+        <v>265</v>
+      </c>
+      <c r="B286" t="str">
         <v>BackTracking</v>
       </c>
-      <c r="B286" t="str">
+      <c r="C286" t="str">
         <v>Combinational Sum</v>
       </c>
-      <c r="C286" t="str">
+      <c r="D286" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="str">
+        <v>266</v>
+      </c>
+      <c r="B287" t="str">
         <v>BackTracking</v>
       </c>
-      <c r="B287" t="str">
+      <c r="C287" t="str">
         <v>Find Maximum number possible by doing at-most K swaps</v>
       </c>
-      <c r="C287" t="str">
+      <c r="D287" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="str">
+        <v>267</v>
+      </c>
+      <c r="B288" t="str">
         <v>BackTracking</v>
       </c>
-      <c r="B288" t="str">
+      <c r="C288" t="str">
         <v xml:space="preserve">Print all permutations of a string </v>
       </c>
-      <c r="C288" t="str">
+      <c r="D288" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="str">
+        <v>268</v>
+      </c>
+      <c r="B289" t="str">
         <v>BackTracking</v>
       </c>
-      <c r="B289" t="str">
+      <c r="C289" t="str">
         <v>Find if there is a path of more than k length from a source</v>
       </c>
-      <c r="C289" t="str">
+      <c r="D289" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="str">
+        <v>269</v>
+      </c>
+      <c r="B290" t="str">
         <v>BackTracking</v>
       </c>
-      <c r="B290" t="str">
+      <c r="C290" t="str">
         <v>Longest Possible Route in a Matrix with Hurdles</v>
       </c>
-      <c r="C290" t="str">
+      <c r="D290" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="str">
+        <v>270</v>
+      </c>
+      <c r="B291" t="str">
         <v>BackTracking</v>
       </c>
-      <c r="B291" t="str">
+      <c r="C291" t="str">
         <v>Print all possible paths from top left to bottom right of a mXn matrix</v>
       </c>
-      <c r="C291" t="str">
+      <c r="D291" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="str">
+        <v>271</v>
+      </c>
+      <c r="B292" t="str">
         <v>BackTracking</v>
       </c>
-      <c r="B292" t="str">
+      <c r="C292" t="str">
         <v>Partition of a set intoK subsets with equal sum</v>
       </c>
-      <c r="C292" t="str">
+      <c r="D292" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="str">
+        <v>272</v>
+      </c>
+      <c r="B293" t="str">
         <v>BackTracking</v>
       </c>
-      <c r="B293" t="str">
+      <c r="C293" t="str">
         <v>Find the K-th Permutation Sequence of first N natural numbers</v>
       </c>
-      <c r="C293" t="str">
+      <c r="D293" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="str">
+        <v>273</v>
+      </c>
+      <c r="B296" t="str">
         <v>Stacks &amp; Queues</v>
       </c>
-      <c r="B296" t="str">
+      <c r="C296" t="str">
         <v xml:space="preserve"> Implement Stack from Scratch</v>
       </c>
-      <c r="C296" t="str">
+      <c r="D296" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="str">
+        <v>274</v>
+      </c>
+      <c r="B297" t="str">
         <v>Stacks &amp; Queues</v>
       </c>
-      <c r="B297" t="str">
+      <c r="C297" t="str">
         <v xml:space="preserve"> Implement Queue from Scratch</v>
       </c>
-      <c r="C297" t="str">
+      <c r="D297" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="str">
+        <v>275</v>
+      </c>
+      <c r="B298" t="str">
         <v>Stacks &amp; Queues</v>
       </c>
-      <c r="B298" t="str">
+      <c r="C298" t="str">
         <v>Implement 2 stack in an array</v>
       </c>
-      <c r="C298" t="str">
+      <c r="D298" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="str">
+        <v>276</v>
+      </c>
+      <c r="B299" t="str">
         <v>Stacks &amp; Queues</v>
       </c>
-      <c r="B299" t="str">
+      <c r="C299" t="str">
         <v>find the middle element of a stack</v>
       </c>
-      <c r="C299" t="str">
+      <c r="D299" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="str">
+        <v>277</v>
+      </c>
+      <c r="B300" t="str">
         <v>Stacks &amp; Queues</v>
       </c>
-      <c r="B300" t="str">
+      <c r="C300" t="str">
         <v>Implement "N" stacks in an Array</v>
       </c>
-      <c r="C300" t="str">
+      <c r="D300" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="str">
+        <v>278</v>
+      </c>
+      <c r="B301" t="str">
         <v>Stacks &amp; Queues</v>
       </c>
-      <c r="B301" t="str">
+      <c r="C301" t="str">
         <v>Check the expression has valid or Balanced parenthesis or not.</v>
       </c>
-      <c r="C301" t="str">
+      <c r="D301" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="str">
+        <v>279</v>
+      </c>
+      <c r="B302" t="str">
         <v>Stacks &amp; Queues</v>
       </c>
-      <c r="B302" t="str">
+      <c r="C302" t="str">
         <v>Reverse a String using Stack</v>
       </c>
-      <c r="C302" t="str">
+      <c r="D302" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="str">
+        <v>280</v>
+      </c>
+      <c r="B303" t="str">
         <v>Stacks &amp; Queues</v>
       </c>
-      <c r="B303" t="str">
+      <c r="C303" t="str">
         <v>Design a Stack that supports getMin() in O(1) time and O(1) extra space.</v>
       </c>
-      <c r="C303" t="str">
+      <c r="D303" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="str">
+        <v>281</v>
+      </c>
+      <c r="B304" t="str">
         <v>Stacks &amp; Queues</v>
       </c>
-      <c r="B304" t="str">
+      <c r="C304" t="str">
         <v>Find the next Greater element</v>
       </c>
-      <c r="C304" t="str">
+      <c r="D304" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="str">
+        <v>282</v>
+      </c>
+      <c r="B305" t="str">
         <v>Stacks &amp; Queues</v>
       </c>
-      <c r="B305" t="str">
+      <c r="C305" t="str">
         <v>The celebrity Problem</v>
       </c>
-      <c r="C305" t="str">
+      <c r="D305" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="str">
+        <v>283</v>
+      </c>
+      <c r="B306" t="str">
         <v>Stacks &amp; Queues</v>
       </c>
-      <c r="B306" t="str">
+      <c r="C306" t="str">
         <v>Arithmetic Expression evaluation</v>
       </c>
-      <c r="C306" t="str">
+      <c r="D306" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="str">
+        <v>284</v>
+      </c>
+      <c r="B307" t="str">
         <v>Stacks &amp; Queues</v>
       </c>
-      <c r="B307" t="str">
+      <c r="C307" t="str">
         <v>Evaluation of Postfix expression</v>
       </c>
-      <c r="C307" t="str">
+      <c r="D307" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="str">
+        <v>285</v>
+      </c>
+      <c r="B308" t="str">
         <v>Stacks &amp; Queues</v>
       </c>
-      <c r="B308" t="str">
+      <c r="C308" t="str">
         <v>Implement a method to insert an element at its bottom without using any other data structure.</v>
       </c>
-      <c r="C308" t="str">
+      <c r="D308" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="str">
+        <v>286</v>
+      </c>
+      <c r="B309" t="str">
         <v>Stacks &amp; Queues</v>
       </c>
-      <c r="B309" t="str">
+      <c r="C309" t="str">
         <v>Reverse a stack using recursion</v>
       </c>
-      <c r="C309" t="str">
+      <c r="D309" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="str">
+        <v>287</v>
+      </c>
+      <c r="B310" t="str">
         <v>Stacks &amp; Queues</v>
       </c>
-      <c r="B310" t="str">
+      <c r="C310" t="str">
         <v>Sort a Stack using recursion</v>
       </c>
-      <c r="C310" t="str">
+      <c r="D310" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="str">
+        <v>288</v>
+      </c>
+      <c r="B311" t="str">
         <v>Stacks &amp; Queues</v>
       </c>
-      <c r="B311" t="str">
+      <c r="C311" t="str">
         <v>Merge Overlapping Intervals</v>
       </c>
-      <c r="C311" t="str">
+      <c r="D311" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="str">
+        <v>289</v>
+      </c>
+      <c r="B312" t="str">
         <v>Stacks &amp; Queues</v>
       </c>
-      <c r="B312" t="str">
+      <c r="C312" t="str">
         <v>Largest rectangular Area in Histogram</v>
       </c>
-      <c r="C312" t="str">
+      <c r="D312" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="str">
+        <v>290</v>
+      </c>
+      <c r="B313" t="str">
         <v>Stacks &amp; Queues</v>
       </c>
-      <c r="B313" t="str">
+      <c r="C313" t="str">
         <v>Length of the Longest Valid Substring</v>
       </c>
-      <c r="C313" t="str">
+      <c r="D313" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="str">
+        <v>291</v>
+      </c>
+      <c r="B314" t="str">
         <v>Stacks &amp; Queues</v>
       </c>
-      <c r="B314" t="str">
+      <c r="C314" t="str">
         <v>Expression contains redundant bracket or not</v>
       </c>
-      <c r="C314" t="str">
+      <c r="D314" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="str">
+        <v>292</v>
+      </c>
+      <c r="B315" t="str">
         <v>Stacks &amp; Queues</v>
       </c>
-      <c r="B315" t="str">
+      <c r="C315" t="str">
         <v>Implement Stack using Queue</v>
       </c>
-      <c r="C315" t="str">
+      <c r="D315" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="str">
+        <v>293</v>
+      </c>
+      <c r="B316" t="str">
         <v>Stacks &amp; Queues</v>
       </c>
-      <c r="B316" t="str">
+      <c r="C316" t="str">
         <v>Implement Stack using Deque</v>
       </c>
-      <c r="C316" t="str">
+      <c r="D316" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="str">
+        <v>294</v>
+      </c>
+      <c r="B317" t="str">
         <v>Stacks &amp; Queues</v>
       </c>
-      <c r="B317" t="str">
+      <c r="C317" t="str">
         <v>Stack Permutations (Check if an array is stack permutation of other)</v>
       </c>
-      <c r="C317" t="str">
+      <c r="D317" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="str">
+        <v>295</v>
+      </c>
+      <c r="B318" t="str">
         <v>Stacks &amp; Queues</v>
       </c>
-      <c r="B318" t="str">
+      <c r="C318" t="str">
         <v xml:space="preserve">Implement Queue using Stack  </v>
       </c>
-      <c r="C318" t="str">
+      <c r="D318" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="str">
+        <v>296</v>
+      </c>
+      <c r="B319" t="str">
         <v>Stacks &amp; Queues</v>
       </c>
-      <c r="B319" t="str">
+      <c r="C319" t="str">
         <v>Implement "n" queue in an array</v>
       </c>
-      <c r="C319" t="str">
+      <c r="D319" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="str">
+        <v>297</v>
+      </c>
+      <c r="B320" t="str">
         <v>Stacks &amp; Queues</v>
       </c>
-      <c r="B320" t="str">
+      <c r="C320" t="str">
         <v>Implement a Circular queue</v>
       </c>
-      <c r="C320" t="str">
+      <c r="D320" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="str">
+        <v>298</v>
+      </c>
+      <c r="B321" t="str">
         <v>Stacks &amp; Queues</v>
       </c>
-      <c r="B321" t="str">
+      <c r="C321" t="str">
         <v>LRU Cache Implementationa</v>
       </c>
-      <c r="C321" t="str">
+      <c r="D321" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="str">
+        <v>299</v>
+      </c>
+      <c r="B322" t="str">
         <v>Stacks &amp; Queues</v>
       </c>
-      <c r="B322" t="str">
+      <c r="C322" t="str">
         <v>Reverse a Queue using recursion</v>
       </c>
-      <c r="C322" t="str">
+      <c r="D322" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="str">
+        <v>300</v>
+      </c>
+      <c r="B323" t="str">
         <v>Stacks &amp; Queues</v>
       </c>
-      <c r="B323" t="str">
+      <c r="C323" t="str">
         <v>Reverse the first “K” elements of a queue</v>
       </c>
-      <c r="C323" t="str">
+      <c r="D323" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="str">
+        <v>301</v>
+      </c>
+      <c r="B324" t="str">
         <v>Stacks &amp; Queues</v>
       </c>
-      <c r="B324" t="str">
+      <c r="C324" t="str">
         <v>Interleave the first half of the queue with second half</v>
       </c>
-      <c r="C324" t="str">
+      <c r="D324" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="str">
+        <v>302</v>
+      </c>
+      <c r="B325" t="str">
         <v>Stacks &amp; Queues</v>
       </c>
-      <c r="B325" t="str">
+      <c r="C325" t="str">
         <v>Find the first circular tour that visits all Petrol Pumps</v>
       </c>
-      <c r="C325" t="str">
+      <c r="D325" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="str">
+        <v>303</v>
+      </c>
+      <c r="B326" t="str">
         <v>Stacks &amp; Queues</v>
       </c>
-      <c r="B326" t="str">
+      <c r="C326" t="str">
         <v>Minimum time required to rot all oranges</v>
       </c>
-      <c r="C326" t="str">
+      <c r="D326" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="str">
+        <v>304</v>
+      </c>
+      <c r="B327" t="str">
         <v>Stacks &amp; Queues</v>
       </c>
-      <c r="B327" t="str">
+      <c r="C327" t="str">
         <v>Distance of nearest cell having 1 in a binary matrix</v>
       </c>
-      <c r="C327" t="str">
+      <c r="D327" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="str">
+        <v>305</v>
+      </c>
+      <c r="B328" t="str">
         <v>Stacks &amp; Queues</v>
       </c>
-      <c r="B328" t="str">
+      <c r="C328" t="str">
         <v>First negative integer in every window of size “k”</v>
       </c>
-      <c r="C328" t="str">
+      <c r="D328" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="str">
+        <v>306</v>
+      </c>
+      <c r="B329" t="str">
         <v>Stacks &amp; Queues</v>
       </c>
-      <c r="B329" t="str">
+      <c r="C329" t="str">
         <v>Check if all levels of two trees are anagrams or not.</v>
       </c>
-      <c r="C329" t="str">
+      <c r="D329" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="str">
+        <v>307</v>
+      </c>
+      <c r="B330" t="str">
         <v>Stacks &amp; Queues</v>
       </c>
-      <c r="B330" t="str">
+      <c r="C330" t="str">
         <v>Sum of minimum and maximum elements of all subarrays of size “k”.</v>
       </c>
-      <c r="C330" t="str">
+      <c r="D330" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="str">
+        <v>308</v>
+      </c>
+      <c r="B331" t="str">
         <v>Stacks &amp; Queues</v>
       </c>
-      <c r="B331" t="str">
+      <c r="C331" t="str">
         <v>Minimum sum of squares of character counts in a given string after removing “k” characters.</v>
       </c>
-      <c r="C331" t="str">
+      <c r="D331" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="str">
+        <v>309</v>
+      </c>
+      <c r="B332" t="str">
         <v>Stacks &amp; Queues</v>
       </c>
-      <c r="B332" t="str">
+      <c r="C332" t="str">
         <v>Queue based approach or first non-repeating character in a stream.</v>
       </c>
-      <c r="C332" t="str">
+      <c r="D332" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="str">
+        <v>310</v>
+      </c>
+      <c r="B333" t="str">
         <v>Stacks &amp; Queues</v>
       </c>
-      <c r="B333" t="str">
+      <c r="C333" t="str">
         <v>Next Smaller Element</v>
       </c>
-      <c r="C333" t="str">
+      <c r="D333" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="str">
+        <v>311</v>
+      </c>
+      <c r="B336" t="str">
         <v>Heap</v>
       </c>
-      <c r="B336" t="str">
+      <c r="C336" t="str">
         <v>Implement a Maxheap/MinHeap using arrays and recursion.</v>
       </c>
-      <c r="C336" t="str">
+      <c r="D336" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="str">
+        <v>312</v>
+      </c>
+      <c r="B337" t="str">
         <v>Heap</v>
       </c>
-      <c r="B337" t="str">
+      <c r="C337" t="str">
         <v>Sort an Array using heap. (HeapSort)</v>
       </c>
-      <c r="C337" t="str">
+      <c r="D337" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="str">
+        <v>313</v>
+      </c>
+      <c r="B338" t="str">
         <v>Heap</v>
       </c>
-      <c r="B338" t="str">
+      <c r="C338" t="str">
         <v>Maximum of all subarrays of size k.</v>
       </c>
-      <c r="C338" t="str">
+      <c r="D338" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="str">
+        <v>314</v>
+      </c>
+      <c r="B339" t="str">
         <v>Heap</v>
       </c>
-      <c r="B339" t="str">
+      <c r="C339" t="str">
         <v>“k” largest element in an array</v>
       </c>
-      <c r="C339" t="str">
+      <c r="D339" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="str">
+        <v>315</v>
+      </c>
+      <c r="B340" t="str">
         <v>Heap</v>
       </c>
-      <c r="B340" t="str">
+      <c r="C340" t="str">
         <v>Kth smallest and largest element in an unsorted array</v>
       </c>
-      <c r="C340" t="str">
+      <c r="D340" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="str">
+        <v>316</v>
+      </c>
+      <c r="B341" t="str">
         <v>Heap</v>
       </c>
-      <c r="B341" t="str">
+      <c r="C341" t="str">
         <v>Merge “K” sorted arrays. [ IMP ]</v>
       </c>
-      <c r="C341" t="str">
+      <c r="D341" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="str">
+        <v>317</v>
+      </c>
+      <c r="B342" t="str">
         <v>Heap</v>
       </c>
-      <c r="B342" t="str">
+      <c r="C342" t="str">
         <v>Merge 2 Binary Max Heaps</v>
       </c>
-      <c r="C342" t="str">
+      <c r="D342" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="str">
+        <v>318</v>
+      </c>
+      <c r="B343" t="str">
         <v>Heap</v>
       </c>
-      <c r="B343" t="str">
+      <c r="C343" t="str">
         <v>Kth largest sum continuous subarrays</v>
       </c>
-      <c r="C343" t="str">
+      <c r="D343" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="str">
+        <v>319</v>
+      </c>
+      <c r="B344" t="str">
         <v>Heap</v>
       </c>
-      <c r="B344" t="str">
+      <c r="C344" t="str">
         <v>Leetcode- reorganize strings</v>
       </c>
-      <c r="C344" t="str">
+      <c r="D344" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="str">
+        <v>320</v>
+      </c>
+      <c r="B345" t="str">
         <v>Heap</v>
       </c>
-      <c r="B345" t="str">
+      <c r="C345" t="str">
         <v>Merge “K” Sorted Linked Lists [V.IMP]</v>
       </c>
-      <c r="C345" t="str">
+      <c r="D345" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="str">
+        <v>321</v>
+      </c>
+      <c r="B346" t="str">
         <v>Heap</v>
       </c>
-      <c r="B346" t="str">
+      <c r="C346" t="str">
         <v>Smallest range in “K” Lists</v>
       </c>
-      <c r="C346" t="str">
+      <c r="D346" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="str">
+        <v>322</v>
+      </c>
+      <c r="B347" t="str">
         <v>Heap</v>
       </c>
-      <c r="B347" t="str">
+      <c r="C347" t="str">
         <v>Median in a stream of Integers</v>
       </c>
-      <c r="C347" t="str">
+      <c r="D347" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="str">
+        <v>323</v>
+      </c>
+      <c r="B348" t="str">
         <v>Heap</v>
       </c>
-      <c r="B348" t="str">
+      <c r="C348" t="str">
         <v>Check if a Binary Tree is Heap</v>
       </c>
-      <c r="C348" t="str">
+      <c r="D348" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="str">
+        <v>324</v>
+      </c>
+      <c r="B349" t="str">
         <v>Heap</v>
       </c>
-      <c r="B349" t="str">
+      <c r="C349" t="str">
         <v>Connect “n” ropes with minimum cost</v>
       </c>
-      <c r="C349" t="str">
+      <c r="D349" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="str">
+        <v>325</v>
+      </c>
+      <c r="B350" t="str">
         <v>Heap</v>
       </c>
-      <c r="B350" t="str">
+      <c r="C350" t="str">
         <v>Convert BST to Min Heap</v>
       </c>
-      <c r="C350" t="str">
+      <c r="D350" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="str">
+        <v>326</v>
+      </c>
+      <c r="B351" t="str">
         <v>Heap</v>
       </c>
-      <c r="B351" t="str">
+      <c r="C351" t="str">
         <v>Convert min heap to max heap</v>
       </c>
-      <c r="C351" t="str">
+      <c r="D351" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="str">
+        <v>327</v>
+      </c>
+      <c r="B352" t="str">
         <v>Heap</v>
       </c>
-      <c r="B352" t="str">
+      <c r="C352" t="str">
         <v>Rearrange characters in a string such that no two adjacent are same.</v>
       </c>
-      <c r="C352" t="str">
+      <c r="D352" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="str">
+        <v>328</v>
+      </c>
+      <c r="B353" t="str">
         <v>Heap</v>
       </c>
-      <c r="B353" t="str">
+      <c r="C353" t="str">
         <v>Minimum sum of two numbers formed from digits of an array</v>
       </c>
-      <c r="C353" t="str">
+      <c r="D353" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="str">
+        <v>329</v>
+      </c>
+      <c r="B356" t="str">
         <v>Graph</v>
       </c>
-      <c r="B356" t="str">
+      <c r="C356" t="str">
         <v>Create a Graph, print it</v>
       </c>
-      <c r="C356" t="str">
+      <c r="D356" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="str">
+        <v>330</v>
+      </c>
+      <c r="B357" t="str">
         <v>Graph</v>
       </c>
-      <c r="B357" t="str">
+      <c r="C357" t="str">
         <v xml:space="preserve">Implement BFS algorithm </v>
       </c>
-      <c r="C357" t="str">
+      <c r="D357" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="str">
+        <v>331</v>
+      </c>
+      <c r="B358" t="str">
         <v>Graph</v>
       </c>
-      <c r="B358" t="str">
+      <c r="C358" t="str">
         <v xml:space="preserve">Implement DFS Algo </v>
       </c>
-      <c r="C358" t="str">
+      <c r="D358" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="str">
+        <v>332</v>
+      </c>
+      <c r="B359" t="str">
         <v>Graph</v>
       </c>
-      <c r="B359" t="str">
+      <c r="C359" t="str">
         <v xml:space="preserve">Detect Cycle in Directed Graph using BFS/DFS Algo </v>
       </c>
-      <c r="C359" t="str">
+      <c r="D359" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="str">
+        <v>333</v>
+      </c>
+      <c r="B360" t="str">
         <v>Graph</v>
       </c>
-      <c r="B360" t="str">
+      <c r="C360" t="str">
         <v xml:space="preserve">Detect Cycle in UnDirected Graph using BFS/DFS Algo </v>
       </c>
-      <c r="C360" t="str">
+      <c r="D360" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="str">
+        <v>334</v>
+      </c>
+      <c r="B361" t="str">
         <v>Graph</v>
       </c>
-      <c r="B361" t="str">
+      <c r="C361" t="str">
         <v>Search in a Maze</v>
       </c>
-      <c r="C361" t="str">
+      <c r="D361" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="str">
+        <v>335</v>
+      </c>
+      <c r="B362" t="str">
         <v>Graph</v>
       </c>
-      <c r="B362" t="str">
+      <c r="C362" t="str">
         <v>Minimum Step by Knight</v>
       </c>
-      <c r="C362" t="str">
+      <c r="D362" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="str">
+        <v>336</v>
+      </c>
+      <c r="B363" t="str">
         <v>Graph</v>
       </c>
-      <c r="B363" t="str">
+      <c r="C363" t="str">
         <v>flood fill algo</v>
       </c>
-      <c r="C363" t="str">
+      <c r="D363" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="str">
+        <v>337</v>
+      </c>
+      <c r="B364" t="str">
         <v>Graph</v>
       </c>
-      <c r="B364" t="str">
+      <c r="C364" t="str">
         <v>Clone a graph</v>
       </c>
-      <c r="C364" t="str">
+      <c r="D364" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="str">
+        <v>338</v>
+      </c>
+      <c r="B365" t="str">
         <v>Graph</v>
       </c>
-      <c r="B365" t="str">
+      <c r="C365" t="str">
         <v>Making wired Connections</v>
       </c>
-      <c r="C365" t="str">
+      <c r="D365" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="str">
+        <v>339</v>
+      </c>
+      <c r="B366" t="str">
         <v>Graph</v>
       </c>
-      <c r="B366" t="str">
+      <c r="C366" t="str">
         <v xml:space="preserve">word Ladder </v>
       </c>
-      <c r="C366" t="str">
+      <c r="D366" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="str">
+        <v>340</v>
+      </c>
+      <c r="B367" t="str">
         <v>Graph</v>
       </c>
-      <c r="B367" t="str">
+      <c r="C367" t="str">
         <v>Dijkstra algo</v>
       </c>
-      <c r="C367" t="str">
+      <c r="D367" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="str">
+        <v>341</v>
+      </c>
+      <c r="B368" t="str">
         <v>Graph</v>
       </c>
-      <c r="B368" t="str">
+      <c r="C368" t="str">
         <v xml:space="preserve">Implement Topological Sort </v>
       </c>
-      <c r="C368" t="str">
+      <c r="D368" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="str">
+        <v>342</v>
+      </c>
+      <c r="B369" t="str">
         <v>Graph</v>
       </c>
-      <c r="B369" t="str">
+      <c r="C369" t="str">
         <v>Minimum time taken by each job to be completed given by a Directed Acyclic Graph</v>
       </c>
-      <c r="C369" t="str">
+      <c r="D369" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="str">
+        <v>343</v>
+      </c>
+      <c r="B370" t="str">
         <v>Graph</v>
       </c>
-      <c r="B370" t="str">
+      <c r="C370" t="str">
         <v>Find whether it is possible to finish all tasks or not from given dependencies</v>
       </c>
-      <c r="C370" t="str">
+      <c r="D370" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="str">
+        <v>344</v>
+      </c>
+      <c r="B371" t="str">
         <v>Graph</v>
       </c>
-      <c r="B371" t="str">
+      <c r="C371" t="str">
         <v>Find the no. of Isalnds</v>
       </c>
-      <c r="C371" t="str">
+      <c r="D371" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="str">
+        <v>345</v>
+      </c>
+      <c r="B372" t="str">
         <v>Graph</v>
       </c>
-      <c r="B372" t="str">
+      <c r="C372" t="str">
         <v>Given a sorted Dictionary of an Alien Language, find order of characters</v>
       </c>
-      <c r="C372" t="str">
+      <c r="D372" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="str">
+        <v>346</v>
+      </c>
+      <c r="B373" t="str">
         <v>Graph</v>
       </c>
-      <c r="B373" t="str">
+      <c r="C373" t="str">
         <v>Implement Kruksal’sAlgorithm</v>
       </c>
-      <c r="C373" t="str">
+      <c r="D373" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="str">
+        <v>347</v>
+      </c>
+      <c r="B374" t="str">
         <v>Graph</v>
       </c>
-      <c r="B374" t="str">
+      <c r="C374" t="str">
         <v>Implement Prim’s Algorithm</v>
       </c>
-      <c r="C374" t="str">
+      <c r="D374" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="str">
+        <v>348</v>
+      </c>
+      <c r="B375" t="str">
         <v>Graph</v>
       </c>
-      <c r="B375" t="str">
+      <c r="C375" t="str">
         <v>Total no. of Spanning tree in a graph</v>
       </c>
-      <c r="C375" t="str">
+      <c r="D375" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="str">
+        <v>349</v>
+      </c>
+      <c r="B376" t="str">
         <v>Graph</v>
       </c>
-      <c r="B376" t="str">
+      <c r="C376" t="str">
         <v>Implement Bellman Ford Algorithm</v>
       </c>
-      <c r="C376" t="str">
+      <c r="D376" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="str">
+        <v>350</v>
+      </c>
+      <c r="B377" t="str">
         <v>Graph</v>
       </c>
-      <c r="B377" t="str">
+      <c r="C377" t="str">
         <v>Implement Floyd warshallAlgorithm</v>
       </c>
-      <c r="C377" t="str">
+      <c r="D377" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="str">
+        <v>351</v>
+      </c>
+      <c r="B378" t="str">
         <v>Graph</v>
       </c>
-      <c r="B378" t="str">
+      <c r="C378" t="str">
         <v>Travelling Salesman Problem</v>
       </c>
-      <c r="C378" t="str">
+      <c r="D378" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="str">
+        <v>352</v>
+      </c>
+      <c r="B379" t="str">
         <v>Graph</v>
       </c>
-      <c r="B379" t="str">
+      <c r="C379" t="str">
         <v>Graph ColouringProblem</v>
       </c>
-      <c r="C379" t="str">
+      <c r="D379" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="str">
+        <v>353</v>
+      </c>
+      <c r="B380" t="str">
         <v>Graph</v>
       </c>
-      <c r="B380" t="str">
+      <c r="C380" t="str">
         <v>Snake and Ladders Problem</v>
       </c>
-      <c r="C380" t="str">
+      <c r="D380" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="str">
+        <v>354</v>
+      </c>
+      <c r="B381" t="str">
         <v>Graph</v>
       </c>
-      <c r="B381" t="str">
+      <c r="C381" t="str">
         <v>Find bridge in a graph</v>
       </c>
-      <c r="C381" t="str">
+      <c r="D381" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="str">
+        <v>355</v>
+      </c>
+      <c r="B382" t="str">
         <v>Graph</v>
       </c>
-      <c r="B382" t="str">
+      <c r="C382" t="str">
         <v>Count Strongly connected Components(Kosaraju Algo)</v>
       </c>
-      <c r="C382" t="str">
+      <c r="D382" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="str">
+        <v>356</v>
+      </c>
+      <c r="B383" t="str">
         <v>Graph</v>
       </c>
-      <c r="B383" t="str">
+      <c r="C383" t="str">
         <v>Check whether a graph is Bipartite or Not</v>
       </c>
-      <c r="C383" t="str">
+      <c r="D383" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="str">
+        <v>357</v>
+      </c>
+      <c r="B384" t="str">
         <v>Graph</v>
       </c>
-      <c r="B384" t="str">
+      <c r="C384" t="str">
         <v>Detect Negative cycle in a graph</v>
       </c>
-      <c r="C384" t="str">
+      <c r="D384" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="str">
+        <v>358</v>
+      </c>
+      <c r="B385" t="str">
         <v>Graph</v>
       </c>
-      <c r="B385" t="str">
+      <c r="C385" t="str">
         <v>Longest path in a Directed Acyclic Graph</v>
       </c>
-      <c r="C385" t="str">
+      <c r="D385" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="str">
+        <v>359</v>
+      </c>
+      <c r="B386" t="str">
         <v>Graph</v>
       </c>
-      <c r="B386" t="str">
+      <c r="C386" t="str">
         <v>Journey to the Moon</v>
       </c>
-      <c r="C386" t="str">
+      <c r="D386" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="str">
+        <v>360</v>
+      </c>
+      <c r="B387" t="str">
         <v>Graph</v>
       </c>
-      <c r="B387" t="str">
+      <c r="C387" t="str">
         <v>Cheapest Flights Within K Stops</v>
       </c>
-      <c r="C387" t="str">
+      <c r="D387" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="str">
+        <v>361</v>
+      </c>
+      <c r="B388" t="str">
         <v>Graph</v>
       </c>
-      <c r="B388" t="str">
+      <c r="C388" t="str">
         <v>Oliver and the Game</v>
       </c>
-      <c r="C388" t="str">
+      <c r="D388" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="str">
+        <v>362</v>
+      </c>
+      <c r="B389" t="str">
         <v>Graph</v>
       </c>
-      <c r="B389" t="str">
+      <c r="C389" t="str">
         <v>Water Jug problem using BFS</v>
       </c>
-      <c r="C389" t="str">
+      <c r="D389" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="str">
+        <v>363</v>
+      </c>
+      <c r="B390" t="str">
         <v>Graph</v>
       </c>
-      <c r="B390" t="str">
+      <c r="C390" t="str">
         <v>Water Jug problem using BFS</v>
       </c>
-      <c r="C390" t="str">
+      <c r="D390" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="str">
+        <v>364</v>
+      </c>
+      <c r="B391" t="str">
         <v>Graph</v>
       </c>
-      <c r="B391" t="str">
+      <c r="C391" t="str">
         <v>Find if there is a path of more thank length from a source</v>
       </c>
-      <c r="C391" t="str">
+      <c r="D391" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="str">
+        <v>365</v>
+      </c>
+      <c r="B392" t="str">
         <v>Graph</v>
       </c>
-      <c r="B392" t="str">
+      <c r="C392" t="str">
         <v>M-ColouringProblem</v>
       </c>
-      <c r="C392" t="str">
+      <c r="D392" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="str">
+        <v>366</v>
+      </c>
+      <c r="B393" t="str">
         <v>Graph</v>
       </c>
-      <c r="B393" t="str">
+      <c r="C393" t="str">
         <v>Minimum edges to reverse o make path from source to destination</v>
       </c>
-      <c r="C393" t="str">
+      <c r="D393" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="str">
+        <v>367</v>
+      </c>
+      <c r="B394" t="str">
         <v>Graph</v>
       </c>
-      <c r="B394" t="str">
+      <c r="C394" t="str">
         <v>Paths to travel each nodes using each edge(Seven Bridges)</v>
       </c>
-      <c r="C394" t="str">
+      <c r="D394" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="str">
+        <v>368</v>
+      </c>
+      <c r="B395" t="str">
         <v>Graph</v>
       </c>
-      <c r="B395" t="str">
+      <c r="C395" t="str">
         <v>Vertex Cover Problem</v>
       </c>
-      <c r="C395" t="str">
+      <c r="D395" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="str">
+        <v>369</v>
+      </c>
+      <c r="B396" t="str">
         <v>Graph</v>
       </c>
-      <c r="B396" t="str">
+      <c r="C396" t="str">
         <v>Chinese Postman or Route Inspection</v>
       </c>
-      <c r="C396" t="str">
+      <c r="D396" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="str">
+        <v>370</v>
+      </c>
+      <c r="B397" t="str">
         <v>Graph</v>
       </c>
-      <c r="B397" t="str">
+      <c r="C397" t="str">
         <v>Number of Triangles in a Directed and Undirected Graph</v>
       </c>
-      <c r="C397" t="str">
+      <c r="D397" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="str">
+        <v>371</v>
+      </c>
+      <c r="B398" t="str">
         <v>Graph</v>
       </c>
-      <c r="B398" t="str">
+      <c r="C398" t="str">
         <v>Minimise the cashflow among a given set of friends who have borrowed money from each other</v>
       </c>
-      <c r="C398" t="str">
+      <c r="D398" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="str">
+        <v>372</v>
+      </c>
+      <c r="B399" t="str">
         <v>Graph</v>
       </c>
-      <c r="B399" t="str">
+      <c r="C399" t="str">
         <v>Two Clique Problem</v>
       </c>
-      <c r="C399" t="str">
+      <c r="D399" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="str">
+        <v>373</v>
+      </c>
+      <c r="B402" t="str">
         <v>Trie</v>
       </c>
-      <c r="B402" t="str">
+      <c r="C402" t="str">
         <v>Construct a trie from scratch</v>
       </c>
-      <c r="C402" t="str">
+      <c r="D402" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="str">
+        <v>374</v>
+      </c>
+      <c r="B403" t="str">
         <v>Trie</v>
       </c>
-      <c r="B403" t="str">
+      <c r="C403" t="str">
         <v>Find shortest unique prefix for every word in a given list</v>
       </c>
-      <c r="C403" t="str">
+      <c r="D403" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="str">
+        <v>375</v>
+      </c>
+      <c r="B404" t="str">
         <v>Trie</v>
       </c>
-      <c r="B404" t="str">
+      <c r="C404" t="str">
         <v>Word Break Problem | (Trie solution)</v>
       </c>
-      <c r="C404" t="str">
+      <c r="D404" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="str">
+        <v>376</v>
+      </c>
+      <c r="B405" t="str">
         <v>Trie</v>
       </c>
-      <c r="B405" t="str">
+      <c r="C405" t="str">
         <v>Given a sequence of words, print all anagrams together</v>
       </c>
-      <c r="C405" t="str">
+      <c r="D405" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="str">
+        <v>377</v>
+      </c>
+      <c r="B406" t="str">
         <v>Trie</v>
       </c>
-      <c r="B406" t="str">
+      <c r="C406" t="str">
         <v>Implement a Phone Directory</v>
       </c>
-      <c r="C406" t="str">
+      <c r="D406" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="str">
+        <v>378</v>
+      </c>
+      <c r="B407" t="str">
         <v>Trie</v>
       </c>
-      <c r="B407" t="str">
+      <c r="C407" t="str">
         <v>Print unique rows in a given boolean matrix</v>
       </c>
-      <c r="C407" t="str">
+      <c r="D407" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="str">
+        <v>379</v>
+      </c>
+      <c r="B410" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B410" t="str">
+      <c r="C410" t="str">
         <v>Coin ChangeProblem</v>
       </c>
-      <c r="C410" t="str">
+      <c r="D410" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="str">
+        <v>380</v>
+      </c>
+      <c r="B411" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B411" t="str">
+      <c r="C411" t="str">
         <v>Knapsack Problem</v>
       </c>
-      <c r="C411" t="str">
+      <c r="D411" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="str">
+        <v>381</v>
+      </c>
+      <c r="B412" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B412" t="str">
+      <c r="C412" t="str">
         <v>Binomial CoefficientProblem</v>
       </c>
-      <c r="C412" t="str">
+      <c r="D412" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="str">
+        <v>382</v>
+      </c>
+      <c r="B413" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B413" t="str">
+      <c r="C413" t="str">
         <v>Permutation CoefficientProblem</v>
       </c>
-      <c r="C413" t="str">
+      <c r="D413" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="str">
+        <v>383</v>
+      </c>
+      <c r="B414" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B414" t="str">
+      <c r="C414" t="str">
         <v>Program for nth Catalan Number</v>
       </c>
-      <c r="C414" t="str">
+      <c r="D414" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="str">
+        <v>384</v>
+      </c>
+      <c r="B415" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B415" t="str">
+      <c r="C415" t="str">
         <v xml:space="preserve">Matrix Chain Multiplication </v>
       </c>
-      <c r="C415" t="str">
+      <c r="D415" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="str">
+        <v>385</v>
+      </c>
+      <c r="B416" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B416" t="str">
+      <c r="C416" t="str">
         <v>Edit Distance</v>
       </c>
-      <c r="C416" t="str">
+      <c r="D416" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="str">
+        <v>386</v>
+      </c>
+      <c r="B417" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B417" t="str">
+      <c r="C417" t="str">
         <v>Subset Sum Problem</v>
       </c>
-      <c r="C417" t="str">
+      <c r="D417" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="str">
+        <v>387</v>
+      </c>
+      <c r="B418" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B418" t="str">
+      <c r="C418" t="str">
         <v>Friends Pairing Problem</v>
       </c>
-      <c r="C418" t="str">
+      <c r="D418" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="str">
+        <v>388</v>
+      </c>
+      <c r="B419" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B419" t="str">
+      <c r="C419" t="str">
         <v>Gold Mine Problem</v>
       </c>
-      <c r="C419" t="str">
+      <c r="D419" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="str">
+        <v>389</v>
+      </c>
+      <c r="B420" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B420" t="str">
+      <c r="C420" t="str">
         <v>Assembly Line SchedulingProblem</v>
       </c>
-      <c r="C420" t="str">
+      <c r="D420" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="str">
+        <v>390</v>
+      </c>
+      <c r="B421" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B421" t="str">
+      <c r="C421" t="str">
         <v>Painting the Fenceproblem</v>
       </c>
-      <c r="C421" t="str">
+      <c r="D421" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="str">
+        <v>391</v>
+      </c>
+      <c r="B422" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B422" t="str">
+      <c r="C422" t="str">
         <v>Maximize The Cut Segments</v>
       </c>
-      <c r="C422" t="str">
+      <c r="D422" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="str">
+        <v>392</v>
+      </c>
+      <c r="B423" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B423" t="str">
+      <c r="C423" t="str">
         <v>Longest Common Subsequence</v>
       </c>
-      <c r="C423" t="str">
+      <c r="D423" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="str">
+        <v>393</v>
+      </c>
+      <c r="B424" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B424" t="str">
+      <c r="C424" t="str">
         <v>Longest Repeated Subsequence</v>
       </c>
-      <c r="C424" t="str">
+      <c r="D424" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="str">
+        <v>394</v>
+      </c>
+      <c r="B425" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B425" t="str">
+      <c r="C425" t="str">
         <v>Longest Increasing Subsequence</v>
       </c>
-      <c r="C425" t="str">
+      <c r="D425" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="str">
+        <v>395</v>
+      </c>
+      <c r="B426" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B426" t="str">
+      <c r="C426" t="str">
         <v>Space Optimized Solution of LCS</v>
       </c>
-      <c r="C426" t="str">
+      <c r="D426" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="str">
+        <v>396</v>
+      </c>
+      <c r="B427" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B427" t="str">
+      <c r="C427" t="str">
         <v>LCS (Longest Common Subsequence) of three strings</v>
       </c>
-      <c r="C427" t="str">
+      <c r="D427" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="str">
+        <v>397</v>
+      </c>
+      <c r="B428" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B428" t="str">
+      <c r="C428" t="str">
         <v>Maximum Sum Increasing Subsequence</v>
       </c>
-      <c r="C428" t="str">
+      <c r="D428" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="str">
+        <v>398</v>
+      </c>
+      <c r="B429" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B429" t="str">
+      <c r="C429" t="str">
         <v>Count all subsequences having product less than K</v>
       </c>
-      <c r="C429" t="str">
+      <c r="D429" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="str">
+        <v>399</v>
+      </c>
+      <c r="B430" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B430" t="str">
+      <c r="C430" t="str">
         <v>Longest subsequence such that difference between adjacent is one</v>
       </c>
-      <c r="C430" t="str">
+      <c r="D430" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="str">
+        <v>400</v>
+      </c>
+      <c r="B431" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B431" t="str">
+      <c r="C431" t="str">
         <v>Maximum subsequence sum such that no three are consecutive</v>
       </c>
-      <c r="C431" t="str">
+      <c r="D431" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="str">
+        <v>401</v>
+      </c>
+      <c r="B432" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B432" t="str">
+      <c r="C432" t="str">
         <v>Egg Dropping Problem</v>
       </c>
-      <c r="C432" t="str">
+      <c r="D432" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="str">
+        <v>402</v>
+      </c>
+      <c r="B433" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B433" t="str">
+      <c r="C433" t="str">
         <v>Maximum Length Chain of Pairs</v>
       </c>
-      <c r="C433" t="str">
+      <c r="D433" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="str">
+        <v>403</v>
+      </c>
+      <c r="B434" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B434" t="str">
+      <c r="C434" t="str">
         <v>Maximum size square sub-matrix with all 1s</v>
       </c>
-      <c r="C434" t="str">
+      <c r="D434" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="str">
+        <v>404</v>
+      </c>
+      <c r="B435" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B435" t="str">
+      <c r="C435" t="str">
         <v>Maximum sum of pairs with specific difference</v>
       </c>
-      <c r="C435" t="str">
+      <c r="D435" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="str">
+        <v>405</v>
+      </c>
+      <c r="B436" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B436" t="str">
+      <c r="C436" t="str">
         <v>Min Cost PathProblem</v>
       </c>
-      <c r="C436" t="str">
+      <c r="D436" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="str">
+        <v>406</v>
+      </c>
+      <c r="B437" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B437" t="str">
+      <c r="C437" t="str">
         <v>Maximum difference of zeros and ones in binary string</v>
       </c>
-      <c r="C437" t="str">
+      <c r="D437" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="str">
+        <v>407</v>
+      </c>
+      <c r="B438" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B438" t="str">
+      <c r="C438" t="str">
         <v>Minimum number of jumps to reach end</v>
       </c>
-      <c r="C438" t="str">
+      <c r="D438" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="str">
+        <v>408</v>
+      </c>
+      <c r="B439" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B439" t="str">
+      <c r="C439" t="str">
         <v>Minimum cost to fill given weight in a bag</v>
       </c>
-      <c r="C439" t="str">
+      <c r="D439" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="str">
+        <v>409</v>
+      </c>
+      <c r="B440" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B440" t="str">
+      <c r="C440" t="str">
         <v>Minimum removals from array to make max –min &lt;= K</v>
       </c>
-      <c r="C440" t="str">
+      <c r="D440" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="str">
+        <v>410</v>
+      </c>
+      <c r="B441" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B441" t="str">
+      <c r="C441" t="str">
         <v>Longest Common Substring</v>
       </c>
-      <c r="C441" t="str">
+      <c r="D441" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="str">
+        <v>411</v>
+      </c>
+      <c r="B442" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B442" t="str">
+      <c r="C442" t="str">
         <v>Count number of ways to reacha given score in a game</v>
       </c>
-      <c r="C442" t="str">
+      <c r="D442" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="str">
+        <v>412</v>
+      </c>
+      <c r="B443" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B443" t="str">
+      <c r="C443" t="str">
         <v>Count Balanced Binary Trees of Height h</v>
       </c>
-      <c r="C443" t="str">
+      <c r="D443" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="str">
+        <v>413</v>
+      </c>
+      <c r="B444" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B444" t="str">
+      <c r="C444" t="str">
         <v>LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]</v>
       </c>
-      <c r="C444" t="str">
+      <c r="D444" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="str">
+        <v>414</v>
+      </c>
+      <c r="B445" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B445" t="str">
+      <c r="C445" t="str">
         <v>Smallest sum contiguous subarray</v>
       </c>
-      <c r="C445" t="str">
+      <c r="D445" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="str">
+        <v>415</v>
+      </c>
+      <c r="B446" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B446" t="str">
+      <c r="C446" t="str">
         <v>Unbounded Knapsack (Repetition of items allowed)</v>
       </c>
-      <c r="C446" t="str">
+      <c r="D446" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="str">
+        <v>416</v>
+      </c>
+      <c r="B447" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B447" t="str">
+      <c r="C447" t="str">
         <v>Word Break Problem</v>
       </c>
-      <c r="C447" t="str">
+      <c r="D447" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="str">
+        <v>417</v>
+      </c>
+      <c r="B448" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B448" t="str">
+      <c r="C448" t="str">
         <v>Largest Independent Set Problem</v>
       </c>
-      <c r="C448" t="str">
+      <c r="D448" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="str">
+        <v>418</v>
+      </c>
+      <c r="B449" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B449" t="str">
+      <c r="C449" t="str">
         <v>Partition problem</v>
       </c>
-      <c r="C449" t="str">
+      <c r="D449" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="str">
+        <v>419</v>
+      </c>
+      <c r="B450" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B450" t="str">
+      <c r="C450" t="str">
         <v>Longest Palindromic Subsequence</v>
       </c>
-      <c r="C450" t="str">
+      <c r="D450" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="str">
+        <v>420</v>
+      </c>
+      <c r="B451" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B451" t="str">
+      <c r="C451" t="str">
         <v>Count All Palindromic Subsequence in a given String</v>
       </c>
-      <c r="C451" t="str">
+      <c r="D451" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="str">
+        <v>421</v>
+      </c>
+      <c r="B452" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B452" t="str">
+      <c r="C452" t="str">
         <v>Longest Palindromic Substring</v>
       </c>
-      <c r="C452" t="str">
+      <c r="D452" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="str">
+        <v>422</v>
+      </c>
+      <c r="B453" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B453" t="str">
+      <c r="C453" t="str">
         <v>Longest alternating subsequence</v>
       </c>
-      <c r="C453" t="str">
+      <c r="D453" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="str">
+        <v>423</v>
+      </c>
+      <c r="B454" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B454" t="str">
+      <c r="C454" t="str">
         <v>Weighted Job Scheduling</v>
       </c>
-      <c r="C454" t="str">
+      <c r="D454" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="str">
+        <v>424</v>
+      </c>
+      <c r="B455" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B455" t="str">
+      <c r="C455" t="str">
         <v>Coin game winner where every player has three choices</v>
       </c>
-      <c r="C455" t="str">
+      <c r="D455" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="str">
+        <v>425</v>
+      </c>
+      <c r="B456" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B456" t="str">
+      <c r="C456" t="str">
         <v>Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]</v>
       </c>
-      <c r="C456" t="str">
+      <c r="D456" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="str">
+        <v>426</v>
+      </c>
+      <c r="B457" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B457" t="str">
+      <c r="C457" t="str">
         <v>Maximum profit by buying and selling a share at most twice [ IMP ]</v>
       </c>
-      <c r="C457" t="str">
+      <c r="D457" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="str">
+        <v>427</v>
+      </c>
+      <c r="B458" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B458" t="str">
+      <c r="C458" t="str">
         <v>Optimal Strategy for a Game</v>
       </c>
-      <c r="C458" t="str">
+      <c r="D458" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="str">
+        <v>428</v>
+      </c>
+      <c r="B459" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B459" t="str">
+      <c r="C459" t="str">
         <v>Optimal Binary Search Tree</v>
       </c>
-      <c r="C459" t="str">
+      <c r="D459" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="str">
+        <v>429</v>
+      </c>
+      <c r="B460" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B460" t="str">
+      <c r="C460" t="str">
         <v>Palindrome PartitioningProblem</v>
       </c>
-      <c r="C460" t="str">
+      <c r="D460" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="str">
+        <v>430</v>
+      </c>
+      <c r="B461" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B461" t="str">
+      <c r="C461" t="str">
         <v>Word Wrap Problem</v>
       </c>
-      <c r="C461" t="str">
+      <c r="D461" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="str">
+        <v>431</v>
+      </c>
+      <c r="B462" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B462" t="str">
+      <c r="C462" t="str">
         <v>Mobile Numeric Keypad Problem [ IMP ]</v>
       </c>
-      <c r="C462" t="str">
+      <c r="D462" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="str">
+        <v>432</v>
+      </c>
+      <c r="B463" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B463" t="str">
+      <c r="C463" t="str">
         <v>Boolean Parenthesization Problem</v>
       </c>
-      <c r="C463" t="str">
+      <c r="D463" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="str">
+        <v>433</v>
+      </c>
+      <c r="B464" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B464" t="str">
+      <c r="C464" t="str">
         <v>Largest rectangular sub-matrix whose sum is 0</v>
       </c>
-      <c r="C464" t="str">
+      <c r="D464" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="str">
+        <v>434</v>
+      </c>
+      <c r="B465" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B465" t="str">
+      <c r="C465" t="str">
         <v>Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]</v>
       </c>
-      <c r="C465" t="str">
+      <c r="D465" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="str">
+        <v>435</v>
+      </c>
+      <c r="B466" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B466" t="str">
+      <c r="C466" t="str">
         <v>Maximum sum rectangle in a 2D matrix</v>
       </c>
-      <c r="C466" t="str">
+      <c r="D466" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="str">
+        <v>436</v>
+      </c>
+      <c r="B467" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B467" t="str">
+      <c r="C467" t="str">
         <v>Maximum profit by buying and selling a share at most k times</v>
       </c>
-      <c r="C467" t="str">
+      <c r="D467" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="str">
+        <v>437</v>
+      </c>
+      <c r="B468" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B468" t="str">
+      <c r="C468" t="str">
         <v>Find if a string is interleaved of two other strings</v>
       </c>
-      <c r="C468" t="str">
+      <c r="D468" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="str">
+        <v>438</v>
+      </c>
+      <c r="B469" t="str">
         <v>Dynamic Programming</v>
       </c>
-      <c r="B469" t="str">
+      <c r="C469" t="str">
         <v>Maximum Length of Pair Chain</v>
       </c>
-      <c r="C469" t="str">
+      <c r="D469" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="str">
+        <v>439</v>
+      </c>
+      <c r="B472" t="str">
         <v>Bit Manipulation</v>
       </c>
-      <c r="B472" t="str">
+      <c r="C472" t="str">
         <v>Count set bits in an integer</v>
       </c>
-      <c r="C472" t="str">
+      <c r="D472" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="str">
+        <v>440</v>
+      </c>
+      <c r="B473" t="str">
         <v>Bit Manipulation</v>
       </c>
-      <c r="B473" t="str">
+      <c r="C473" t="str">
         <v>Find the two non-repeating elements in an array of repeating elements</v>
       </c>
-      <c r="C473" t="str">
+      <c r="D473" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="str">
+        <v>441</v>
+      </c>
+      <c r="B474" t="str">
         <v>Bit Manipulation</v>
       </c>
-      <c r="B474" t="str">
+      <c r="C474" t="str">
         <v>Count number of bits to be flipped to convert A to B</v>
       </c>
-      <c r="C474" t="str">
+      <c r="D474" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="str">
+        <v>442</v>
+      </c>
+      <c r="B475" t="str">
         <v>Bit Manipulation</v>
       </c>
-      <c r="B475" t="str">
+      <c r="C475" t="str">
         <v>Count total set bits in all numbers from 1 to n</v>
       </c>
-      <c r="C475" t="str">
+      <c r="D475" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="str">
+        <v>443</v>
+      </c>
+      <c r="B476" t="str">
         <v>Bit Manipulation</v>
       </c>
-      <c r="B476" t="str">
+      <c r="C476" t="str">
         <v>Program to find whether a no is power of two</v>
       </c>
-      <c r="C476" t="str">
+      <c r="D476" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="str">
+        <v>444</v>
+      </c>
+      <c r="B477" t="str">
         <v>Bit Manipulation</v>
       </c>
-      <c r="B477" t="str">
+      <c r="C477" t="str">
         <v>Find position of the only set bit</v>
       </c>
-      <c r="C477" t="str">
+      <c r="D477" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="str">
+        <v>445</v>
+      </c>
+      <c r="B478" t="str">
         <v>Bit Manipulation</v>
       </c>
-      <c r="B478" t="str">
+      <c r="C478" t="str">
         <v>Copy set bits in a range</v>
       </c>
-      <c r="C478" t="str">
+      <c r="D478" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="str">
+        <v>446</v>
+      </c>
+      <c r="B479" t="str">
         <v>Bit Manipulation</v>
       </c>
-      <c r="B479" t="str">
+      <c r="C479" t="str">
         <v>Divide two integers without using multiplication, division and mod operator</v>
       </c>
-      <c r="C479" t="str">
+      <c r="D479" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="str">
+        <v>447</v>
+      </c>
+      <c r="B480" t="str">
         <v>Bit Manipulation</v>
       </c>
-      <c r="B480" t="str">
+      <c r="C480" t="str">
         <v>Calculate square of a number without using *, / and pow()</v>
       </c>
-      <c r="C480" t="str">
+      <c r="D480" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="str">
+        <v>448</v>
+      </c>
+      <c r="B481" t="str">
         <v>Bit Manipulation</v>
       </c>
-      <c r="B481" t="str">
+      <c r="C481" t="str">
         <v>Power Set</v>
       </c>
-      <c r="C481" t="str">
+      <c r="D481" t="str">
         <v>&lt;-&gt;</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E481"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F481"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -404,7 +404,7 @@
         <v xml:space="preserve">Done [yes or no] </v>
       </c>
       <c r="F4" t="str">
-        <v>code</v>
+        <v>comments</v>
       </c>
     </row>
     <row r="6">
@@ -488,7 +488,7 @@
         <v>Find the Union and Intersection of the two sorted arrays.</v>
       </c>
       <c r="D11" t="str">
-        <v>&lt;-&gt;</v>
+        <v>yes</v>
       </c>
     </row>
     <row r="12">
@@ -502,7 +502,10 @@
         <v>Write a program to cyclically rotate an array by one.</v>
       </c>
       <c r="D12" t="str">
-        <v>&lt;-&gt;</v>
+        <v>yes</v>
+      </c>
+      <c r="F12" t="str">
+        <v xml:space="preserve">O(n) requires A Juggling Algorithm </v>
       </c>
     </row>
     <row r="13">
